--- a/PMConverter/src/test2.xlsx
+++ b/PMConverter/src/test2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="212">
   <si>
     <t>General</t>
   </si>
@@ -75,17 +75,594 @@
     <t>PROJECT CLAEYS-VERHELST</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>442d 2h</t>
+  </si>
+  <si>
+    <t>preparation</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170d </t>
+  </si>
+  <si>
+    <t>building permit</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>FS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60d </t>
+  </si>
+  <si>
+    <t>hire contractor</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>FS2</t>
+  </si>
+  <si>
+    <t>FS16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20d </t>
+  </si>
+  <si>
+    <t>temporary offices</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>temporary facilities</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>preparation contractor</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>FS6</t>
+  </si>
+  <si>
+    <t>demolition</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>FS17;FS69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30d </t>
+  </si>
+  <si>
+    <t>team subcontractor [4.0 #8]</t>
+  </si>
+  <si>
+    <t>foundation</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39d </t>
+  </si>
+  <si>
+    <t>excavation</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>FS18;FS21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14d </t>
+  </si>
+  <si>
+    <t>team subcontractor</t>
+  </si>
+  <si>
+    <t>soil analyses</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>FS18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d </t>
+  </si>
+  <si>
+    <t>foundation beam</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>17FS;FS69</t>
+  </si>
+  <si>
+    <t>FS19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25d </t>
+  </si>
+  <si>
+    <t>team subcontractor [3.0 #8]</t>
+  </si>
+  <si>
+    <t>placing sewerage</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>FS17</t>
+  </si>
+  <si>
+    <t>FS23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10d </t>
+  </si>
+  <si>
+    <t>foundation plate</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>FS21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d </t>
+  </si>
+  <si>
+    <t>team subcontractor [5.0 #8]</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>steelframe I</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>18FS;FS23</t>
+  </si>
+  <si>
+    <t>FS20</t>
+  </si>
+  <si>
+    <t>concrete vaults I</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>FS22</t>
+  </si>
+  <si>
+    <t>steelframe II</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>FS24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15d </t>
+  </si>
+  <si>
+    <t>concrete vaults II</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>FS25;FS49</t>
+  </si>
+  <si>
+    <t>wind and water proof</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>facades</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>FS26</t>
+  </si>
+  <si>
+    <t>team subcontractor [2.0 #8]</t>
+  </si>
+  <si>
+    <t>outside windows</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>FS25</t>
+  </si>
+  <si>
+    <t>FS28;FS29</t>
+  </si>
+  <si>
+    <t>carpenter [3.0 #3]</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>roofer [4.0 #4]</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>103d 2h</t>
+  </si>
+  <si>
+    <t>v0 concrete</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>FS30;FS27;FS59;FS52;FS45;FS34;FS60;FS51</t>
+  </si>
+  <si>
+    <t>v0 sanitary</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>31FS;FS28</t>
+  </si>
+  <si>
+    <t>FS35</t>
+  </si>
+  <si>
+    <t>plumber</t>
+  </si>
+  <si>
+    <t>v0 masonry</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>mason</t>
+  </si>
+  <si>
+    <t>v0 heating</t>
+  </si>
+  <si>
+    <t>1.5.4</t>
+  </si>
+  <si>
+    <t>heating engineer</t>
+  </si>
+  <si>
+    <t>v0 electricity</t>
+  </si>
+  <si>
+    <t>1.5.5</t>
+  </si>
+  <si>
+    <t>26FS;FS31</t>
+  </si>
+  <si>
+    <t>electrician</t>
+  </si>
+  <si>
+    <t>v0 floors</t>
+  </si>
+  <si>
+    <t>1.5.6</t>
+  </si>
+  <si>
+    <t>59FS;29FS;FS30</t>
+  </si>
+  <si>
+    <t>FS41;FS37</t>
+  </si>
+  <si>
+    <t>floor layer</t>
+  </si>
+  <si>
+    <t>construction leave</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>FS53;FS55;FS56;FS61;FS54;FS30;FS27;FS59;FS52;FS45;FS34;FS60;FS51;FS29</t>
+  </si>
+  <si>
+    <t>level 1</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40d </t>
+  </si>
+  <si>
+    <t>v1 sanitary</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>v1 masonry</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>v1 screed</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>FS67</t>
+  </si>
+  <si>
+    <t>screed layer [2.0 #3]</t>
+  </si>
+  <si>
+    <t>v1 heating</t>
+  </si>
+  <si>
+    <t>1.7.4</t>
+  </si>
+  <si>
+    <t>v1 electricity</t>
+  </si>
+  <si>
+    <t>1.7.5</t>
+  </si>
+  <si>
+    <t>v1 drying screed</t>
+  </si>
+  <si>
+    <t>1.7.6</t>
+  </si>
+  <si>
+    <t>FS34</t>
+  </si>
+  <si>
+    <t>FS57;FS32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5d </t>
+  </si>
+  <si>
+    <t>v1 flooring</t>
+  </si>
+  <si>
+    <t>1.7.7</t>
+  </si>
+  <si>
+    <t>FS41;FS37;FS36</t>
+  </si>
+  <si>
+    <t>level 2</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>v2 sanitary</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>FS31</t>
+  </si>
+  <si>
+    <t>v2 masonry</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>v2 screed</t>
+  </si>
+  <si>
+    <t>1.8.3</t>
+  </si>
+  <si>
+    <t>FS68;FS36</t>
+  </si>
+  <si>
+    <t>screed layer</t>
+  </si>
+  <si>
+    <t>v2 heating</t>
+  </si>
+  <si>
+    <t>1.8.4</t>
+  </si>
+  <si>
+    <t>v2 electricity</t>
+  </si>
+  <si>
+    <t>1.8.5</t>
+  </si>
+  <si>
+    <t>v2 drying screed</t>
+  </si>
+  <si>
+    <t>1.8.6</t>
+  </si>
+  <si>
+    <t>FS56</t>
+  </si>
+  <si>
+    <t>FS58;FS32</t>
+  </si>
+  <si>
+    <t>v2 flooring</t>
+  </si>
+  <si>
+    <t>1.8.7</t>
+  </si>
+  <si>
+    <t>FS68</t>
+  </si>
+  <si>
+    <t>completion</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65d </t>
+  </si>
+  <si>
+    <t>stucco</t>
+  </si>
+  <si>
+    <t>1.9.1</t>
+  </si>
+  <si>
+    <t>68FS;FS67</t>
+  </si>
+  <si>
+    <t>plasterer [3.0 #4]</t>
+  </si>
+  <si>
+    <t>drywall</t>
+  </si>
+  <si>
+    <t>1.9.2</t>
+  </si>
+  <si>
+    <t>58FS;57FS;FS56</t>
+  </si>
+  <si>
+    <t>kitchen and bar</t>
+  </si>
+  <si>
+    <t>1.9.3</t>
+  </si>
+  <si>
+    <t>32FS;58FS;57FS;FS35</t>
+  </si>
+  <si>
+    <t>techniques</t>
+  </si>
+  <si>
+    <t>1.9.4</t>
+  </si>
+  <si>
+    <t>FS38;FS42;FS43;FS44</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>1.9.5</t>
+  </si>
+  <si>
+    <t>FS37</t>
+  </si>
+  <si>
+    <t>entrance doors</t>
+  </si>
+  <si>
+    <t>1.9.6</t>
+  </si>
+  <si>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>1.9.7</t>
+  </si>
+  <si>
+    <t>suspended ceiling</t>
+  </si>
+  <si>
+    <t>1.9.8</t>
+  </si>
+  <si>
+    <t>FS39</t>
+  </si>
+  <si>
+    <t>painting</t>
+  </si>
+  <si>
+    <t>1.9.9</t>
+  </si>
+  <si>
+    <t>FS38</t>
+  </si>
+  <si>
+    <t>FS40</t>
+  </si>
+  <si>
+    <t>painter [4.0 #6]</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>1.9.10</t>
+  </si>
+  <si>
+    <t>joiner [5.0 #5]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy H:MM"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00 €"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +672,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,7 +712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,19 +720,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,20 +1050,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="12" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -541,11 +1148,2456 @@
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4">
+        <v>38824.3333333333</v>
+      </c>
+      <c r="G3" s="4">
+        <v>39442.4166666667</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2700210.5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3027133.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
+        <v>38824.3333333333</v>
+      </c>
+      <c r="G4" s="4">
+        <v>39059.7083333333</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>216786.9844</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>253804.5938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4">
+        <v>38824.3333333333</v>
+      </c>
+      <c r="G5" s="4">
+        <v>38905.7083333333</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>75</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4">
+        <v>38908.3333333333</v>
+      </c>
+      <c r="G6" s="4">
+        <v>38933.7083333333</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>210000</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
+        <v>38824.3333333333</v>
+      </c>
+      <c r="G7" s="4">
+        <v>38849.7083333333</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3765.3101</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3765.3101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4">
+        <v>38824.3333333333</v>
+      </c>
+      <c r="G8" s="4">
+        <v>38905.7083333333</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1876.54</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1876.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4">
+        <v>38936.3333333333</v>
+      </c>
+      <c r="G9" s="4">
+        <v>39017.7083333333</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4">
+        <v>39020.3333333333</v>
+      </c>
+      <c r="G10" s="4">
+        <v>39059.7083333333</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="5">
+        <v>37017.6016</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1070.11</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>38087.7109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4">
+        <v>39062.3333333333</v>
+      </c>
+      <c r="G11" s="4">
+        <v>39114.7083333333</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>362567.875</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>401436.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4">
+        <v>39062.3333333333</v>
+      </c>
+      <c r="G12" s="4">
+        <v>39079.7083333333</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="5">
+        <v>4318.7207</v>
+      </c>
+      <c r="K12" s="5">
+        <v>26000</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>30318.7207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4">
+        <v>39062.3333333333</v>
+      </c>
+      <c r="G13" s="4">
+        <v>39063.7083333333</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="5">
+        <v>616.96</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2616.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4">
+        <v>39080.3333333333</v>
+      </c>
+      <c r="G14" s="4">
+        <v>39114.7083333333</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="5">
+        <v>23136</v>
+      </c>
+      <c r="K14" s="5">
+        <v>98523.7266</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>121659.7266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="4">
+        <v>39080.3333333333</v>
+      </c>
+      <c r="G15" s="4">
+        <v>39093.7083333333</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="5">
+        <v>9254.4004</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1224.73</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>10479.1309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="4">
+        <v>39094.3333333333</v>
+      </c>
+      <c r="G16" s="4">
+        <v>39094.7083333333</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1542.4062</v>
+      </c>
+      <c r="K16" s="5">
+        <v>234819.4375</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>236361.8438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4">
+        <v>39115.3333333333</v>
+      </c>
+      <c r="G17" s="4">
+        <v>39198.7083333333</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>472804.4375</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>542212.4375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="4">
+        <v>39115.3333333333</v>
+      </c>
+      <c r="G18" s="4">
+        <v>39142.7083333333</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="5">
+        <v>24678.3984</v>
+      </c>
+      <c r="K18" s="5">
+        <v>118992.5078</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>143670.9062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2">
         <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="4">
+        <v>39143.3333333333</v>
+      </c>
+      <c r="G19" s="4">
+        <v>39156.7083333333</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="5">
+        <v>12339.2031</v>
+      </c>
+      <c r="K19" s="5">
+        <v>117409.7188</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>129748.9219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="4">
+        <v>39157.3333333333</v>
+      </c>
+      <c r="G20" s="4">
+        <v>39177.7083333333</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="5">
+        <v>13881.6016</v>
+      </c>
+      <c r="K20" s="5">
+        <v>118992.5078</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>132874.1094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="4">
+        <v>39178.3333333333</v>
+      </c>
+      <c r="G21" s="4">
+        <v>39198.7083333333</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="5">
+        <v>18508.7969</v>
+      </c>
+      <c r="K21" s="5">
+        <v>117409.7188</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>135918.5156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4">
+        <v>39199.3333333333</v>
+      </c>
+      <c r="G22" s="4">
+        <v>39240.7083333333</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>560844.1875</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>597047.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="4">
+        <v>39199.3333333333</v>
+      </c>
+      <c r="G23" s="4">
+        <v>39226.7083333333</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="5">
+        <v>12339.1875</v>
+      </c>
+      <c r="K23" s="5">
+        <v>339314</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>351653.1875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="4">
+        <v>39227.3333333333</v>
+      </c>
+      <c r="G24" s="4">
+        <v>39240.7083333333</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="5">
+        <v>9120</v>
+      </c>
+      <c r="K24" s="5">
+        <v>150750.5938</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>159870.5938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4">
+        <v>39199.3333333333</v>
+      </c>
+      <c r="G25" s="4">
+        <v>39212.7083333333</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="5">
+        <v>11520</v>
+      </c>
+      <c r="K25" s="5">
+        <v>70779.5703</v>
+      </c>
+      <c r="L25" s="5">
+        <v>40.3</v>
+      </c>
+      <c r="M25" s="5">
+        <v>3224</v>
+      </c>
+      <c r="N25" s="5">
+        <v>85523.5703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4">
+        <v>39241.3333333333</v>
+      </c>
+      <c r="G26" s="4">
+        <v>39386.4166666667</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>257044.9688</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>301814.5625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="4">
+        <v>39241.3333333333</v>
+      </c>
+      <c r="G27" s="4">
+        <v>39254.7083333333</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="5">
+        <v>15424</v>
+      </c>
+      <c r="K27" s="5">
+        <v>134400</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>149824</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G28" s="4">
+        <v>39337.4166666667</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" s="5">
+        <v>2880</v>
+      </c>
+      <c r="K28" s="5">
+        <v>4793</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>7673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G29" s="4">
+        <v>39337.4166666667</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="5">
+        <v>3252</v>
+      </c>
+      <c r="K29" s="5">
+        <v>31200.9609</v>
+      </c>
+      <c r="L29" s="5">
+        <v>40.65</v>
+      </c>
+      <c r="M29" s="5">
+        <v>3252</v>
+      </c>
+      <c r="N29" s="5">
+        <v>37704.9609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G30" s="4">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="5">
+        <v>6912</v>
+      </c>
+      <c r="K30" s="5">
+        <v>11651</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>18563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G31" s="4">
+        <v>39358.4166666667</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="5">
+        <v>6400</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="2">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="4">
+        <v>39358.4166666667</v>
+      </c>
+      <c r="G32" s="4">
+        <v>39386.4166666667</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="5">
+        <v>6649.6016</v>
+      </c>
+      <c r="K32" s="5">
+        <v>75000</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>81649.6016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="2">
+        <v>66</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4">
+        <v>39309.4166666667</v>
+      </c>
+      <c r="G33" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="4">
+        <v>39309.4166666667</v>
+      </c>
+      <c r="G34" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="2">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G35" s="4">
+        <v>39379.4166666667</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>226284.9844</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>262542.5938</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G36" s="4">
+        <v>39337.4166666667</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2880</v>
+      </c>
+      <c r="K36" s="5">
+        <v>4793</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>7673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="2">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G37" s="4">
+        <v>39337.4166666667</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="5">
+        <v>3252</v>
+      </c>
+      <c r="K37" s="5">
+        <v>31200.9609</v>
+      </c>
+      <c r="L37" s="5">
+        <v>40.65</v>
+      </c>
+      <c r="M37" s="5">
+        <v>3252</v>
+      </c>
+      <c r="N37" s="5">
+        <v>37704.9609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="2">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G38" s="4">
+        <v>39344.4166666667</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>106140</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>106140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="2">
+        <v>60</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G39" s="4">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" s="5">
+        <v>6912</v>
+      </c>
+      <c r="K39" s="5">
+        <v>11651</v>
+      </c>
+      <c r="L39" s="5">
+        <v>43.2</v>
+      </c>
+      <c r="M39" s="5">
+        <v>6912</v>
+      </c>
+      <c r="N39" s="5">
+        <v>25475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="2">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G40" s="4">
+        <v>39358.4166666667</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="5">
+        <v>6400</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="2">
+        <v>67</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="4">
+        <v>39344.4166666667</v>
+      </c>
+      <c r="G41" s="4">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="2">
+        <v>57</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="4">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="G42" s="4">
+        <v>39379.4166666667</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" s="5">
+        <v>6649.6016</v>
+      </c>
+      <c r="K42" s="5">
+        <v>72500</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>79149.6016</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="2">
+        <v>64</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G43" s="4">
+        <v>39379.4166666667</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>125260.9688</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>149562.5625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="2">
+        <v>53</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G44" s="4">
+        <v>39337.4166666667</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J44" s="5">
+        <v>2880</v>
+      </c>
+      <c r="K44" s="5">
+        <v>4793</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>7673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="2">
+        <v>55</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G45" s="4">
+        <v>39337.4166666667</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" s="5">
+        <v>3252</v>
+      </c>
+      <c r="K45" s="5">
+        <v>31200.9609</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>34452.9609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="2">
+        <v>56</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G46" s="4">
+        <v>39344.4166666667</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>46116</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>46116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="2">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G47" s="4">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J47" s="5">
+        <v>5120</v>
+      </c>
+      <c r="K47" s="5">
+        <v>11651</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>16771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="2">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G48" s="4">
+        <v>39358.4166666667</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J48" s="5">
+        <v>6400</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="2">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="4">
+        <v>39344.4166666667</v>
+      </c>
+      <c r="G49" s="4">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="2">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="4">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="G50" s="4">
+        <v>39379.4166666667</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J50" s="5">
+        <v>6649.6016</v>
+      </c>
+      <c r="K50" s="5">
+        <v>31500</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5">
+        <v>38149.6016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="2">
+        <v>65</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="4">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="G51" s="4">
+        <v>39442.4166666667</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5">
+        <v>478615.9062</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="5">
+        <v>518712.7188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="2">
+        <v>32</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="4">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="G52" s="4">
+        <v>39372.4166666667</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J52" s="5">
+        <v>14896.8008</v>
+      </c>
+      <c r="K52" s="5">
+        <v>8642</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5">
+        <v>23538.8008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="2">
+        <v>36</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4">
+        <v>39379.4166666667</v>
+      </c>
+      <c r="G53" s="4">
+        <v>39414.4166666667</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
+        <v>48000</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="2">
+        <v>41</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4">
+        <v>39386.4166666667</v>
+      </c>
+      <c r="G54" s="4">
+        <v>39407.4166666667</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5">
+        <v>87000</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="2">
+        <v>37</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" s="4">
+        <v>39386.4166666667</v>
+      </c>
+      <c r="G55" s="4">
+        <v>39407.4166666667</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
+        <v>2156.0601</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="5">
+        <v>2156.0601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="2">
+        <v>44</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4">
+        <v>39407.4166666667</v>
+      </c>
+      <c r="G56" s="4">
+        <v>39421.4166666667</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5">
+        <v>33000</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="2">
+        <v>42</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4">
+        <v>39407.4166666667</v>
+      </c>
+      <c r="G57" s="4">
+        <v>39421.4166666667</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <v>16000</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+      <c r="N57" s="5">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="2">
+        <v>43</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4">
+        <v>39407.4166666667</v>
+      </c>
+      <c r="G58" s="4">
+        <v>39414.4166666667</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>38817.8516</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="5">
+        <v>38817.8516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="2">
+        <v>38</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" s="4">
+        <v>39407.4166666667</v>
+      </c>
+      <c r="G59" s="4">
+        <v>39414.4166666667</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
+        <v>32000</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="5">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="2">
+        <v>39</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F60" s="4">
+        <v>39414.4166666667</v>
+      </c>
+      <c r="G60" s="4">
+        <v>39435.4166666667</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J60" s="5">
+        <v>16800</v>
+      </c>
+      <c r="K60" s="5">
+        <v>83000</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="5">
+        <v>99800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="2">
+        <v>40</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="4">
+        <v>39435.4166666667</v>
+      </c>
+      <c r="G61" s="4">
+        <v>39442.4166666667</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J61" s="5">
+        <v>8400</v>
+      </c>
+      <c r="K61" s="5">
+        <v>130000</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+      <c r="N61" s="5">
+        <v>138400</v>
       </c>
     </row>
   </sheetData>

--- a/PMConverter/src/test2.xlsx
+++ b/PMConverter/src/test2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="250">
   <si>
     <t>General</t>
   </si>
@@ -652,6 +652,120 @@
   </si>
   <si>
     <t>joiner [5.0 #5]</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Cost/Use</t>
+  </si>
+  <si>
+    <t>Cost/Unit</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>painter</t>
+  </si>
+  <si>
+    <t>Renewable</t>
+  </si>
+  <si>
+    <t>6 #6</t>
+  </si>
+  <si>
+    <t>39[4 #6];</t>
+  </si>
+  <si>
+    <t>joiner</t>
+  </si>
+  <si>
+    <t>5 #5</t>
+  </si>
+  <si>
+    <t>40[5 #5];</t>
+  </si>
+  <si>
+    <t>roofer</t>
+  </si>
+  <si>
+    <t>4 #4</t>
+  </si>
+  <si>
+    <t>49[4 #4];</t>
+  </si>
+  <si>
+    <t>2 #2</t>
+  </si>
+  <si>
+    <t>59;60;</t>
+  </si>
+  <si>
+    <t>plasterer</t>
+  </si>
+  <si>
+    <t>32[3 #4];</t>
+  </si>
+  <si>
+    <t>27;45;55;</t>
+  </si>
+  <si>
+    <t>3 #3</t>
+  </si>
+  <si>
+    <t>34[2 #3];56;</t>
+  </si>
+  <si>
+    <t>30;52;53;</t>
+  </si>
+  <si>
+    <t>8 #8</t>
+  </si>
+  <si>
+    <t>6[4 #8];17;69;18[3 #8];21[3 #8];23[5 #8];19[4 #8];20[4 #8];22[3 #8];24[4 #8];25[2 #8];28[5 #8];</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>26[3 #3];</t>
+  </si>
+  <si>
+    <t>35;57;58;</t>
+  </si>
+  <si>
+    <t>29;51;61;54;</t>
+  </si>
+  <si>
+    <t>Activity Duration Distribution Profiles</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Most Probable</t>
+  </si>
+  <si>
+    <t>Pessimistic</t>
+  </si>
+  <si>
+    <t>manual - absolute</t>
+  </si>
+  <si>
+    <t>standard - symmetric</t>
+  </si>
+  <si>
+    <t>standard - no risk</t>
+  </si>
+  <si>
+    <t>standard - skewed left</t>
   </si>
 </sst>
 </file>
@@ -660,6 +774,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy H:MM"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00 €"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy H:MM"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy H:MM"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00 €"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00 €"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00 €"/>
     <numFmt numFmtId="165" formatCode="#,##0.00 €"/>
   </numFmts>
   <fonts count="3">
@@ -686,7 +806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +828,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4D0C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -754,6 +892,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1215,246 +1377,246 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <v>38824.3333333333</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="9">
         <v>38905.7083333333</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="I5" s="2"/>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
         <v>75</v>
       </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="8">
         <v>38908.3333333333</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="9">
         <v>38933.7083333333</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="I6" s="2"/>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
         <v>210000</v>
       </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
         <v>210000</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8">
         <v>38824.3333333333</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="9">
         <v>38849.7083333333</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="I7" s="2"/>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
         <v>3765.3101</v>
       </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
         <v>3765.3101</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8">
         <v>38824.3333333333</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="9">
         <v>38905.7083333333</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="I8" s="2"/>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
         <v>1876.54</v>
       </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
         <v>1876.54</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="8">
         <v>38936.3333333333</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="9">
         <v>39017.7083333333</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="I9" s="2"/>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
         <v>0.01</v>
       </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
         <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="8">
         <v>39020.3333333333</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="9">
         <v>39059.7083333333</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="10">
         <v>37017.6016</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="11">
         <v>1070.11</v>
       </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
         <v>38087.7109</v>
       </c>
     </row>
@@ -1497,222 +1659,222 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="2">
+      <c r="A12" s="6">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="8">
         <v>39062.3333333333</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="9">
         <v>39079.7083333333</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="10">
         <v>4318.7207</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="11">
         <v>26000</v>
       </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
         <v>30318.7207</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>69</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="8">
         <v>39062.3333333333</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="9">
         <v>39063.7083333333</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="10">
         <v>616.96</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="11">
         <v>2000</v>
       </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
         <v>2616.96</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="2">
+      <c r="A14" s="6">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="8">
         <v>39080.3333333333</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="9">
         <v>39114.7083333333</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="10">
         <v>23136</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="11">
         <v>98523.7266</v>
       </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
         <v>121659.7266</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="2">
+      <c r="A15" s="6">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="8">
         <v>39080.3333333333</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="9">
         <v>39093.7083333333</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="10">
         <v>9254.4004</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="11">
         <v>1224.73</v>
       </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
         <v>10479.1309</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="8">
         <v>39094.3333333333</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="9">
         <v>39094.7083333333</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="10">
         <v>1542.4062</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="11">
         <v>234819.4375</v>
       </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
         <v>236361.8438</v>
       </c>
     </row>
@@ -1755,178 +1917,178 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="2">
+      <c r="A18" s="6">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="8">
         <v>39115.3333333333</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="9">
         <v>39142.7083333333</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="10">
         <v>24678.3984</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="11">
         <v>118992.5078</v>
       </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
         <v>143670.9062</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2">
+      <c r="A19" s="6">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="8">
         <v>39143.3333333333</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="9">
         <v>39156.7083333333</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="10">
         <v>12339.2031</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="11">
         <v>117409.7188</v>
       </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
         <v>129748.9219</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="2">
+      <c r="A20" s="6">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="8">
         <v>39157.3333333333</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="9">
         <v>39177.7083333333</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="10">
         <v>13881.6016</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="11">
         <v>118992.5078</v>
       </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
         <v>132874.1094</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="2">
+      <c r="A21" s="6">
         <v>24</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="8">
         <v>39178.3333333333</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="9">
         <v>39198.7083333333</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="10">
         <v>18508.7969</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="11">
         <v>117409.7188</v>
       </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
         <v>135918.5156</v>
       </c>
     </row>
@@ -1969,132 +2131,132 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="2">
+      <c r="A23" s="6">
         <v>25</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="8">
         <v>39199.3333333333</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="9">
         <v>39226.7083333333</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="10">
         <v>12339.1875</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="11">
         <v>339314</v>
       </c>
-      <c r="L23" s="5">
-        <v>0</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5">
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
         <v>351653.1875</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="2">
+      <c r="A24" s="6">
         <v>26</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="8">
         <v>39227.3333333333</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="9">
         <v>39240.7083333333</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="10">
         <v>9120</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="11">
         <v>150750.5938</v>
       </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5">
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
         <v>159870.5938</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="2">
+      <c r="A25" s="6">
         <v>49</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4">
+      <c r="E25" s="6"/>
+      <c r="F25" s="8">
         <v>39199.3333333333</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="9">
         <v>39212.7083333333</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="10">
         <v>11520</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="11">
         <v>70779.5703</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="12">
         <v>40.3</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="11">
         <v>3224</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="10">
         <v>85523.5703</v>
       </c>
     </row>
@@ -2137,264 +2299,264 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="2">
+      <c r="A27" s="6">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="8">
         <v>39241.3333333333</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="9">
         <v>39254.7083333333</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="10">
         <v>15424</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="11">
         <v>134400</v>
       </c>
-      <c r="L27" s="5">
-        <v>0</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5">
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
         <v>149824</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="2">
+      <c r="A28" s="6">
         <v>30</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="9">
         <v>39337.4166666667</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="10">
         <v>2880</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="11">
         <v>4793</v>
       </c>
-      <c r="L28" s="5">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5">
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
         <v>7673</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="2">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4">
+      <c r="E29" s="6"/>
+      <c r="F29" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="9">
         <v>39337.4166666667</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="10">
         <v>3252</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="11">
         <v>31200.9609</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="12">
         <v>40.65</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="11">
         <v>3252</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="10">
         <v>37704.9609</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="2">
+      <c r="A30" s="6">
         <v>59</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="9">
         <v>39351.4166666667</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="10">
         <v>6912</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="11">
         <v>11651</v>
       </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
         <v>18563</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="2">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="9">
         <v>39358.4166666667</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="10">
         <v>6400</v>
       </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
         <v>6400</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="2">
+      <c r="A32" s="6">
         <v>35</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="8">
         <v>39358.4166666667</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="9">
         <v>39386.4166666667</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="10">
         <v>6649.6016</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="11">
         <v>75000</v>
       </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5">
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
         <v>81649.6016</v>
       </c>
     </row>
@@ -2437,42 +2599,42 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="2">
+      <c r="A34" s="6">
         <v>31</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="8">
         <v>39309.4166666667</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="9">
         <v>39323.4166666667</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="I34" s="2"/>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
         <v>0.01</v>
       </c>
-      <c r="L34" s="5">
-        <v>0</v>
-      </c>
-      <c r="M34" s="5">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5">
+      <c r="L34" s="12">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -2515,300 +2677,300 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="2">
+      <c r="A36" s="6">
         <v>52</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4">
+      <c r="E36" s="6"/>
+      <c r="F36" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="9">
         <v>39337.4166666667</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="10">
         <v>2880</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="11">
         <v>4793</v>
       </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
         <v>7673</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="2">
+      <c r="A37" s="6">
         <v>45</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4">
+      <c r="E37" s="6"/>
+      <c r="F37" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="9">
         <v>39337.4166666667</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="10">
         <v>3252</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="11">
         <v>31200.9609</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="12">
         <v>40.65</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="11">
         <v>3252</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="10">
         <v>37704.9609</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="2">
+      <c r="A38" s="6">
         <v>34</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="9">
         <v>39344.4166666667</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
+      <c r="J38" s="10">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
         <v>106140</v>
       </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5">
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
         <v>106140</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="2">
+      <c r="A39" s="6">
         <v>60</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4">
+      <c r="E39" s="6"/>
+      <c r="F39" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="9">
         <v>39351.4166666667</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="10">
         <v>6912</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="11">
         <v>11651</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="12">
         <v>43.2</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="11">
         <v>6912</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="10">
         <v>25475</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="2">
+      <c r="A40" s="6">
         <v>51</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4">
+      <c r="E40" s="6"/>
+      <c r="F40" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="9">
         <v>39358.4166666667</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="10">
         <v>6400</v>
       </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5">
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
         <v>6400</v>
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="2">
+      <c r="A41" s="6">
         <v>67</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="8">
         <v>39344.4166666667</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="9">
         <v>39351.4166666667</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5">
+      <c r="I41" s="2"/>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
         <v>0.01</v>
       </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5">
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
         <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="2">
+      <c r="A42" s="6">
         <v>57</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="8">
         <v>39351.4166666667</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="9">
         <v>39379.4166666667</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="10">
         <v>6649.6016</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="11">
         <v>72500</v>
       </c>
-      <c r="L42" s="5">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5">
+      <c r="L42" s="12">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+      <c r="N42" s="10">
         <v>79149.6016</v>
       </c>
     </row>
@@ -2851,300 +3013,300 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="2">
+      <c r="A44" s="6">
         <v>53</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4">
+      <c r="E44" s="6"/>
+      <c r="F44" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="9">
         <v>39337.4166666667</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="10">
         <v>2880</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="11">
         <v>4793</v>
       </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5">
+      <c r="L44" s="12">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="10">
         <v>7673</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="2">
+      <c r="A45" s="6">
         <v>55</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="4">
+      <c r="E45" s="6"/>
+      <c r="F45" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="9">
         <v>39337.4166666667</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="10">
         <v>3252</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="11">
         <v>31200.9609</v>
       </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
-      <c r="M45" s="5">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5">
+      <c r="L45" s="12">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10">
         <v>34452.9609</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="2">
+      <c r="A46" s="6">
         <v>56</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="9">
         <v>39344.4166666667</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5">
+      <c r="J46" s="10">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
         <v>46116</v>
       </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
-      <c r="M46" s="5">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5">
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="10">
         <v>46116</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="2">
+      <c r="A47" s="6">
         <v>61</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4">
+      <c r="E47" s="6"/>
+      <c r="F47" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="9">
         <v>39351.4166666667</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="10">
         <v>5120</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="11">
         <v>11651</v>
       </c>
-      <c r="L47" s="5">
-        <v>0</v>
-      </c>
-      <c r="M47" s="5">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5">
+      <c r="L47" s="12">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="10">
         <v>16771</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="2">
+      <c r="A48" s="6">
         <v>54</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4">
+      <c r="E48" s="6"/>
+      <c r="F48" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="9">
         <v>39358.4166666667</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="10">
         <v>6400</v>
       </c>
-      <c r="K48" s="5">
-        <v>0</v>
-      </c>
-      <c r="L48" s="5">
-        <v>0</v>
-      </c>
-      <c r="M48" s="5">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5">
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10">
         <v>6400</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="2">
+      <c r="A49" s="6">
         <v>68</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="8">
         <v>39344.4166666667</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="9">
         <v>39351.4166666667</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="5">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5">
+      <c r="I49" s="2"/>
+      <c r="J49" s="10">
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
         <v>0.01</v>
       </c>
-      <c r="L49" s="5">
-        <v>0</v>
-      </c>
-      <c r="M49" s="5">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5">
+      <c r="L49" s="12">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+      <c r="N49" s="10">
         <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="2">
+      <c r="A50" s="6">
         <v>58</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="8">
         <v>39351.4166666667</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="9">
         <v>39379.4166666667</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="10">
         <v>6649.6016</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="11">
         <v>31500</v>
       </c>
-      <c r="L50" s="5">
-        <v>0</v>
-      </c>
-      <c r="M50" s="5">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5">
+      <c r="L50" s="12">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="10">
         <v>38149.6016</v>
       </c>
     </row>
@@ -3187,416 +3349,416 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="2">
+      <c r="A52" s="6">
         <v>32</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="8">
         <v>39351.4166666667</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="9">
         <v>39372.4166666667</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="10">
         <v>14896.8008</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="11">
         <v>8642</v>
       </c>
-      <c r="L52" s="5">
-        <v>0</v>
-      </c>
-      <c r="M52" s="5">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5">
+      <c r="L52" s="12">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52" s="10">
         <v>23538.8008</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="2">
+      <c r="A53" s="6">
         <v>36</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="4">
+      <c r="E53" s="6"/>
+      <c r="F53" s="8">
         <v>39379.4166666667</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="9">
         <v>39414.4166666667</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5">
+      <c r="I53" s="2"/>
+      <c r="J53" s="10">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
         <v>48000</v>
       </c>
-      <c r="L53" s="5">
-        <v>0</v>
-      </c>
-      <c r="M53" s="5">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5">
+      <c r="L53" s="12">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+      <c r="N53" s="10">
         <v>48000</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="2">
+      <c r="A54" s="6">
         <v>41</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="4">
+      <c r="E54" s="6"/>
+      <c r="F54" s="8">
         <v>39386.4166666667</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="9">
         <v>39407.4166666667</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5">
+      <c r="I54" s="2"/>
+      <c r="J54" s="10">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
         <v>87000</v>
       </c>
-      <c r="L54" s="5">
-        <v>0</v>
-      </c>
-      <c r="M54" s="5">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5">
+      <c r="L54" s="12">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="10">
         <v>87000</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="2">
+      <c r="A55" s="6">
         <v>37</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="8">
         <v>39386.4166666667</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="9">
         <v>39407.4166666667</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="5">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5">
+      <c r="I55" s="2"/>
+      <c r="J55" s="10">
+        <v>0</v>
+      </c>
+      <c r="K55" s="11">
         <v>2156.0601</v>
       </c>
-      <c r="L55" s="5">
-        <v>0</v>
-      </c>
-      <c r="M55" s="5">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5">
+      <c r="L55" s="12">
+        <v>0</v>
+      </c>
+      <c r="M55" s="11">
+        <v>0</v>
+      </c>
+      <c r="N55" s="10">
         <v>2156.0601</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="2">
+      <c r="A56" s="6">
         <v>44</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="4">
+      <c r="E56" s="6"/>
+      <c r="F56" s="8">
         <v>39407.4166666667</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="9">
         <v>39421.4166666667</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="5">
-        <v>0</v>
-      </c>
-      <c r="K56" s="5">
+      <c r="I56" s="2"/>
+      <c r="J56" s="10">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
         <v>33000</v>
       </c>
-      <c r="L56" s="5">
-        <v>0</v>
-      </c>
-      <c r="M56" s="5">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5">
+      <c r="L56" s="12">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+      <c r="N56" s="10">
         <v>33000</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="2">
+      <c r="A57" s="6">
         <v>42</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="4">
+      <c r="E57" s="6"/>
+      <c r="F57" s="8">
         <v>39407.4166666667</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="9">
         <v>39421.4166666667</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="5">
-        <v>0</v>
-      </c>
-      <c r="K57" s="5">
+      <c r="I57" s="2"/>
+      <c r="J57" s="10">
+        <v>0</v>
+      </c>
+      <c r="K57" s="11">
         <v>16000</v>
       </c>
-      <c r="L57" s="5">
-        <v>0</v>
-      </c>
-      <c r="M57" s="5">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5">
+      <c r="L57" s="12">
+        <v>0</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0</v>
+      </c>
+      <c r="N57" s="10">
         <v>16000</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="2">
+      <c r="A58" s="6">
         <v>43</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="4">
+      <c r="E58" s="6"/>
+      <c r="F58" s="8">
         <v>39407.4166666667</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="9">
         <v>39414.4166666667</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="5">
-        <v>0</v>
-      </c>
-      <c r="K58" s="5">
+      <c r="I58" s="2"/>
+      <c r="J58" s="10">
+        <v>0</v>
+      </c>
+      <c r="K58" s="11">
         <v>38817.8516</v>
       </c>
-      <c r="L58" s="5">
-        <v>0</v>
-      </c>
-      <c r="M58" s="5">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5">
+      <c r="L58" s="12">
+        <v>0</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+      <c r="N58" s="10">
         <v>38817.8516</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="2">
+      <c r="A59" s="6">
         <v>38</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="8">
         <v>39407.4166666667</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="9">
         <v>39414.4166666667</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="5">
-        <v>0</v>
-      </c>
-      <c r="K59" s="5">
+      <c r="I59" s="2"/>
+      <c r="J59" s="10">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11">
         <v>32000</v>
       </c>
-      <c r="L59" s="5">
-        <v>0</v>
-      </c>
-      <c r="M59" s="5">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5">
+      <c r="L59" s="12">
+        <v>0</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="10">
         <v>32000</v>
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="2">
+      <c r="A60" s="6">
         <v>39</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="8">
         <v>39414.4166666667</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="9">
         <v>39435.4166666667</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I60" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="10">
         <v>16800</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="11">
         <v>83000</v>
       </c>
-      <c r="L60" s="5">
-        <v>0</v>
-      </c>
-      <c r="M60" s="5">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5">
+      <c r="L60" s="12">
+        <v>0</v>
+      </c>
+      <c r="M60" s="11">
+        <v>0</v>
+      </c>
+      <c r="N60" s="10">
         <v>99800</v>
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="2">
+      <c r="A61" s="6">
         <v>40</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="4">
+      <c r="E61" s="6"/>
+      <c r="F61" s="8">
         <v>39435.4166666667</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="9">
         <v>39442.4166666667</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="10">
         <v>8400</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="11">
         <v>130000</v>
       </c>
-      <c r="L61" s="5">
-        <v>0</v>
-      </c>
-      <c r="M61" s="5">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5">
+      <c r="L61" s="12">
+        <v>0</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0</v>
+      </c>
+      <c r="N61" s="10">
         <v>138400</v>
       </c>
     </row>
@@ -3614,24 +3776,1713 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="5">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="5">
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>43.2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="5">
+        <v>13824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>41.38</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="5">
+        <v>14896.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>40.65</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="5">
+        <v>9756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" s="5">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>38.56</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="5">
+        <v>173057.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" s="5">
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>41.56</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="5">
+        <v>19948.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" s="5">
+        <v>24320</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="2">
+        <v>402</v>
+      </c>
+      <c r="F5" s="2">
+        <v>480</v>
+      </c>
+      <c r="G5" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="2">
+        <v>127</v>
+      </c>
+      <c r="F6" s="2">
+        <v>160</v>
+      </c>
+      <c r="G6" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="2">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="2">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" s="2">
+        <v>99</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="2">
+        <v>219</v>
+      </c>
+      <c r="F10" s="2">
+        <v>240</v>
+      </c>
+      <c r="G10" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="2">
+        <v>80</v>
+      </c>
+      <c r="F12" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7">
+        <v>69</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="2">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2">
+        <v>100</v>
+      </c>
+      <c r="G13" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="2">
+        <v>159</v>
+      </c>
+      <c r="F14" s="2">
+        <v>200</v>
+      </c>
+      <c r="G14" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="2">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="2">
+        <v>104</v>
+      </c>
+      <c r="F18" s="2">
+        <v>120</v>
+      </c>
+      <c r="G18" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="2">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="2">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7">
+        <v>24</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="2">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2">
+        <v>80</v>
+      </c>
+      <c r="G21" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="2">
+        <v>128</v>
+      </c>
+      <c r="F23" s="2">
+        <v>160</v>
+      </c>
+      <c r="G23" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7">
+        <v>26</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="2">
+        <v>64</v>
+      </c>
+      <c r="F24" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7">
+        <v>49</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" s="2">
+        <v>80</v>
+      </c>
+      <c r="F25" s="2">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="2">
+        <v>80</v>
+      </c>
+      <c r="F27" s="2">
+        <v>100</v>
+      </c>
+      <c r="G27" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7">
+        <v>30</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="2">
+        <v>99</v>
+      </c>
+      <c r="F28" s="2">
+        <v>100</v>
+      </c>
+      <c r="G28" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="2">
+        <v>99</v>
+      </c>
+      <c r="F29" s="2">
+        <v>100</v>
+      </c>
+      <c r="G29" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7">
+        <v>59</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="2">
+        <v>99</v>
+      </c>
+      <c r="F30" s="2">
+        <v>100</v>
+      </c>
+      <c r="G30" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="2">
+        <v>99</v>
+      </c>
+      <c r="F31" s="2">
+        <v>100</v>
+      </c>
+      <c r="G31" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7">
+        <v>35</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E32" s="2">
+        <v>128</v>
+      </c>
+      <c r="F32" s="2">
+        <v>163</v>
+      </c>
+      <c r="G32" s="2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>66</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7">
+        <v>31</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" s="2">
+        <v>99</v>
+      </c>
+      <c r="F34" s="2">
+        <v>100</v>
+      </c>
+      <c r="G34" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
+        <v>63</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7">
+        <v>52</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36" s="2">
+        <v>99</v>
+      </c>
+      <c r="F36" s="2">
+        <v>100</v>
+      </c>
+      <c r="G36" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7">
+        <v>45</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="2">
+        <v>99</v>
+      </c>
+      <c r="F37" s="2">
+        <v>100</v>
+      </c>
+      <c r="G37" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7">
+        <v>34</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E38" s="2">
+        <v>99</v>
+      </c>
+      <c r="F38" s="2">
+        <v>100</v>
+      </c>
+      <c r="G38" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7">
+        <v>60</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" s="2">
+        <v>99</v>
+      </c>
+      <c r="F39" s="2">
+        <v>100</v>
+      </c>
+      <c r="G39" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7">
+        <v>51</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" s="2">
+        <v>99</v>
+      </c>
+      <c r="F40" s="2">
+        <v>100</v>
+      </c>
+      <c r="G40" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7">
+        <v>67</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E41" s="2">
+        <v>80</v>
+      </c>
+      <c r="F41" s="2">
+        <v>110</v>
+      </c>
+      <c r="G41" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7">
+        <v>57</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="2">
+        <v>128</v>
+      </c>
+      <c r="F42" s="2">
+        <v>160</v>
+      </c>
+      <c r="G42" s="2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>64</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="7">
+        <v>53</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="2">
+        <v>99</v>
+      </c>
+      <c r="F44" s="2">
+        <v>100</v>
+      </c>
+      <c r="G44" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7">
+        <v>55</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E45" s="2">
+        <v>99</v>
+      </c>
+      <c r="F45" s="2">
+        <v>100</v>
+      </c>
+      <c r="G45" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="7">
+        <v>56</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E46" s="2">
+        <v>80</v>
+      </c>
+      <c r="F46" s="2">
+        <v>110</v>
+      </c>
+      <c r="G46" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="7">
+        <v>61</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E47" s="2">
+        <v>80</v>
+      </c>
+      <c r="F47" s="2">
+        <v>110</v>
+      </c>
+      <c r="G47" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="7">
+        <v>54</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E48" s="2">
+        <v>99</v>
+      </c>
+      <c r="F48" s="2">
+        <v>100</v>
+      </c>
+      <c r="G48" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="7">
+        <v>68</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E49" s="2">
+        <v>80</v>
+      </c>
+      <c r="F49" s="2">
+        <v>110</v>
+      </c>
+      <c r="G49" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="7">
+        <v>58</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" s="2">
+        <v>128</v>
+      </c>
+      <c r="F50" s="2">
+        <v>160</v>
+      </c>
+      <c r="G50" s="2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3">
+        <v>65</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="7">
+        <v>32</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E52" s="2">
+        <v>96</v>
+      </c>
+      <c r="F52" s="2">
+        <v>120</v>
+      </c>
+      <c r="G52" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="7">
+        <v>36</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="2">
+        <v>160</v>
+      </c>
+      <c r="F53" s="2">
+        <v>200</v>
+      </c>
+      <c r="G53" s="2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="7">
+        <v>41</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E54" s="2">
+        <v>80</v>
+      </c>
+      <c r="F54" s="2">
+        <v>100</v>
+      </c>
+      <c r="G54" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="7">
+        <v>37</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" s="2">
+        <v>80</v>
+      </c>
+      <c r="F55" s="2">
+        <v>100</v>
+      </c>
+      <c r="G55" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="7">
+        <v>44</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" s="2">
+        <v>80</v>
+      </c>
+      <c r="F56" s="2">
+        <v>100</v>
+      </c>
+      <c r="G56" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="7">
+        <v>42</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57" s="2">
+        <v>80</v>
+      </c>
+      <c r="F57" s="2">
+        <v>100</v>
+      </c>
+      <c r="G57" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="7">
+        <v>43</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" s="2">
+        <v>80</v>
+      </c>
+      <c r="F58" s="2">
+        <v>100</v>
+      </c>
+      <c r="G58" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="7">
+        <v>38</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="2">
+        <v>80</v>
+      </c>
+      <c r="F59" s="2">
+        <v>100</v>
+      </c>
+      <c r="G59" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="7">
+        <v>39</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" s="2">
+        <v>80</v>
+      </c>
+      <c r="F60" s="2">
+        <v>100</v>
+      </c>
+      <c r="G60" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="7">
+        <v>40</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="2">
+        <v>80</v>
+      </c>
+      <c r="F61" s="2">
+        <v>100</v>
+      </c>
+      <c r="G61" s="2">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PMConverter/src/test2.xlsx
+++ b/PMConverter/src/test2.xlsx
@@ -669,34 +669,67 @@
     <t>Assigned To</t>
   </si>
   <si>
+    <t>plasterer</t>
+  </si>
+  <si>
+    <t>RENEWABLE</t>
+  </si>
+  <si>
+    <t>4 #4</t>
+  </si>
+  <si>
+    <t>32[3 #4];</t>
+  </si>
+  <si>
+    <t>joiner</t>
+  </si>
+  <si>
+    <t>5 #5</t>
+  </si>
+  <si>
+    <t>40[5 #5];</t>
+  </si>
+  <si>
+    <t>27;45;55;</t>
+  </si>
+  <si>
+    <t>30;52;53;</t>
+  </si>
+  <si>
+    <t>29;51;61;54;</t>
+  </si>
+  <si>
+    <t>roofer</t>
+  </si>
+  <si>
+    <t>49[4 #4];</t>
+  </si>
+  <si>
     <t>painter</t>
   </si>
   <si>
-    <t>Renewable</t>
-  </si>
-  <si>
     <t>6 #6</t>
   </si>
   <si>
     <t>39[4 #6];</t>
   </si>
   <si>
-    <t>joiner</t>
-  </si>
-  <si>
-    <t>5 #5</t>
-  </si>
-  <si>
-    <t>40[5 #5];</t>
-  </si>
-  <si>
-    <t>roofer</t>
-  </si>
-  <si>
-    <t>4 #4</t>
-  </si>
-  <si>
-    <t>49[4 #4];</t>
+    <t>3 #3</t>
+  </si>
+  <si>
+    <t>34[2 #3];56;</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>26[3 #3];</t>
+  </si>
+  <si>
+    <t>8 #8</t>
+  </si>
+  <si>
+    <t>6[4 #8];17;69;18[3 #8];21[3 #8];23[5 #8];19[4 #8];20[4 #8];22[3 #8];24[4 #8];25[2 #8];28[5 #8];</t>
   </si>
   <si>
     <t>2 #2</t>
@@ -705,42 +738,9 @@
     <t>59;60;</t>
   </si>
   <si>
-    <t>plasterer</t>
-  </si>
-  <si>
-    <t>32[3 #4];</t>
-  </si>
-  <si>
-    <t>27;45;55;</t>
-  </si>
-  <si>
-    <t>3 #3</t>
-  </si>
-  <si>
-    <t>34[2 #3];56;</t>
-  </si>
-  <si>
-    <t>30;52;53;</t>
-  </si>
-  <si>
-    <t>8 #8</t>
-  </si>
-  <si>
-    <t>6[4 #8];17;69;18[3 #8];21[3 #8];23[5 #8];19[4 #8];20[4 #8];22[3 #8];24[4 #8];25[2 #8];28[5 #8];</t>
-  </si>
-  <si>
-    <t>carpenter</t>
-  </si>
-  <si>
-    <t>26[3 #3];</t>
-  </si>
-  <si>
     <t>35;57;58;</t>
   </si>
   <si>
-    <t>29;51;61;54;</t>
-  </si>
-  <si>
     <t>Activity Duration Distribution Profiles</t>
   </si>
   <si>
@@ -756,16 +756,16 @@
     <t>Pessimistic</t>
   </si>
   <si>
-    <t>manual - absolute</t>
-  </si>
-  <si>
-    <t>standard - symmetric</t>
-  </si>
-  <si>
-    <t>standard - no risk</t>
-  </si>
-  <si>
-    <t>standard - skewed left</t>
+    <t>MANUAL - ABSOLUTE</t>
+  </si>
+  <si>
+    <t>STANDARD - SYMMETRIC</t>
+  </si>
+  <si>
+    <t>STANDARD - NO_RISK</t>
+  </si>
+  <si>
+    <t>STANDARD - SKEWED_LEFT</t>
   </si>
 </sst>
 </file>
@@ -3783,6 +3783,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3829,7 +3830,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>217</v>
@@ -3844,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="13">
-        <v>35</v>
+        <v>41.38</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>220</v>
       </c>
       <c r="H3" s="5">
-        <v>16800</v>
+        <v>14896.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3881,262 +3882,262 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="F5" s="13">
-        <v>36</v>
+        <v>40.65</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H5" s="5">
-        <v>11520</v>
+        <v>9756</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
       </c>
       <c r="F6" s="13">
-        <v>43.2</v>
+        <v>36</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H6" s="5">
-        <v>13824</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
       </c>
       <c r="F7" s="13">
-        <v>41.38</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H7" s="5">
-        <v>14896.8</v>
+        <v>24320</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
       </c>
       <c r="F8" s="13">
-        <v>40.65</v>
+        <v>36</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H8" s="5">
-        <v>9756</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
       </c>
       <c r="F9" s="13">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H9" s="5">
-        <v>0</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H10" s="5">
-        <v>8640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>38</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <v>38.56</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="H11" s="5">
-        <v>173057.28</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <v>38</v>
+        <v>38.56</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H12" s="5">
-        <v>9120</v>
+        <v>173057.28</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <v>41.56</v>
+        <v>43.2</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>239</v>
       </c>
       <c r="H13" s="5">
-        <v>19948.8</v>
+        <v>13824</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
       </c>
       <c r="F14" s="13">
-        <v>32</v>
+        <v>41.56</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>240</v>
       </c>
       <c r="H14" s="5">
-        <v>24320</v>
+        <v>19948.8</v>
       </c>
     </row>
   </sheetData>

--- a/PMConverter/src/test2.xlsx
+++ b/PMConverter/src/test2.xlsx
@@ -81,6 +81,384 @@
     <t>442d 2h</t>
   </si>
   <si>
+    <t>building permit</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>FS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60d </t>
+  </si>
+  <si>
+    <t>hire contractor</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>FS2</t>
+  </si>
+  <si>
+    <t>FS16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20d </t>
+  </si>
+  <si>
+    <t>temporary offices</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>temporary facilities</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>demolition</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>FS17;FS69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30d </t>
+  </si>
+  <si>
+    <t>team subcontractor [4.0 #8]</t>
+  </si>
+  <si>
+    <t>preparation contractor</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>FS6</t>
+  </si>
+  <si>
+    <t>excavation</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>FS18;FS21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14d </t>
+  </si>
+  <si>
+    <t>team subcontractor</t>
+  </si>
+  <si>
+    <t>foundation beam</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>17FS;FS69</t>
+  </si>
+  <si>
+    <t>FS19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25d </t>
+  </si>
+  <si>
+    <t>team subcontractor [3.0 #8]</t>
+  </si>
+  <si>
+    <t>steelframe I</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>18FS;FS23</t>
+  </si>
+  <si>
+    <t>FS20</t>
+  </si>
+  <si>
+    <t>concrete vaults I</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>FS22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10d </t>
+  </si>
+  <si>
+    <t>placing sewerage</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>FS17</t>
+  </si>
+  <si>
+    <t>FS23</t>
+  </si>
+  <si>
+    <t>steelframe II</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>FS24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15d </t>
+  </si>
+  <si>
+    <t>foundation plate</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>FS21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d </t>
+  </si>
+  <si>
+    <t>team subcontractor [5.0 #8]</t>
+  </si>
+  <si>
+    <t>concrete vaults II</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>FS25;FS49</t>
+  </si>
+  <si>
+    <t>facades</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>FS26</t>
+  </si>
+  <si>
+    <t>team subcontractor [2.0 #8]</t>
+  </si>
+  <si>
+    <t>outside windows</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>FS25</t>
+  </si>
+  <si>
+    <t>FS28;FS29</t>
+  </si>
+  <si>
+    <t>carpenter [3.0 #3]</t>
+  </si>
+  <si>
+    <t>v0 masonry</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>31FS;FS28</t>
+  </si>
+  <si>
+    <t>mason</t>
+  </si>
+  <si>
+    <t>v0 concrete</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>FS30;FS27;FS59;FS52;FS45;FS34;FS60;FS51</t>
+  </si>
+  <si>
+    <t>v0 electricity</t>
+  </si>
+  <si>
+    <t>1.5.5</t>
+  </si>
+  <si>
+    <t>26FS;FS31</t>
+  </si>
+  <si>
+    <t>FS35</t>
+  </si>
+  <si>
+    <t>electrician</t>
+  </si>
+  <si>
+    <t>v0 sanitary</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>plumber</t>
+  </si>
+  <si>
+    <t>construction leave</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>FS53;FS55;FS56;FS61;FS54;FS30;FS27;FS59;FS52;FS45;FS34;FS60;FS51;FS29</t>
+  </si>
+  <si>
+    <t>stucco</t>
+  </si>
+  <si>
+    <t>1.9.1</t>
+  </si>
+  <si>
+    <t>68FS;FS67</t>
+  </si>
+  <si>
+    <t>FS41;FS37</t>
+  </si>
+  <si>
+    <t>plasterer [3.0 #4]</t>
+  </si>
+  <si>
+    <t>v1 screed</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>FS67</t>
+  </si>
+  <si>
+    <t>screed layer [2.0 #3]</t>
+  </si>
+  <si>
+    <t>v0 floors</t>
+  </si>
+  <si>
+    <t>1.5.6</t>
+  </si>
+  <si>
+    <t>59FS;29FS;FS30</t>
+  </si>
+  <si>
+    <t>floor layer</t>
+  </si>
+  <si>
+    <t>drywall</t>
+  </si>
+  <si>
+    <t>1.9.2</t>
+  </si>
+  <si>
+    <t>58FS;57FS;FS56</t>
+  </si>
+  <si>
+    <t>techniques</t>
+  </si>
+  <si>
+    <t>1.9.4</t>
+  </si>
+  <si>
+    <t>32FS;58FS;57FS;FS35</t>
+  </si>
+  <si>
+    <t>FS38;FS42;FS43;FS44</t>
+  </si>
+  <si>
+    <t>suspended ceiling</t>
+  </si>
+  <si>
+    <t>1.9.8</t>
+  </si>
+  <si>
+    <t>FS37</t>
+  </si>
+  <si>
+    <t>FS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5d </t>
+  </si>
+  <si>
+    <t>painting</t>
+  </si>
+  <si>
+    <t>1.9.9</t>
+  </si>
+  <si>
+    <t>FS38</t>
+  </si>
+  <si>
+    <t>FS40</t>
+  </si>
+  <si>
+    <t>painter [4.0 #6]</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>1.9.10</t>
+  </si>
+  <si>
+    <t>joiner [5.0 #5]</t>
+  </si>
+  <si>
+    <t>kitchen and bar</t>
+  </si>
+  <si>
+    <t>1.9.3</t>
+  </si>
+  <si>
+    <t>entrance doors</t>
+  </si>
+  <si>
+    <t>1.9.6</t>
+  </si>
+  <si>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>1.9.7</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>1.9.5</t>
+  </si>
+  <si>
+    <t>v1 masonry</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
     <t>preparation</t>
   </si>
   <si>
@@ -90,69 +468,6 @@
     <t xml:space="preserve">170d </t>
   </si>
   <si>
-    <t>building permit</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>FS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60d </t>
-  </si>
-  <si>
-    <t>hire contractor</t>
-  </si>
-  <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
-    <t>FS2</t>
-  </si>
-  <si>
-    <t>FS16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20d </t>
-  </si>
-  <si>
-    <t>temporary offices</t>
-  </si>
-  <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
-    <t>temporary facilities</t>
-  </si>
-  <si>
-    <t>1.1.4</t>
-  </si>
-  <si>
-    <t>preparation contractor</t>
-  </si>
-  <si>
-    <t>1.1.5</t>
-  </si>
-  <si>
-    <t>FS6</t>
-  </si>
-  <si>
-    <t>demolition</t>
-  </si>
-  <si>
-    <t>1.1.6</t>
-  </si>
-  <si>
-    <t>FS17;FS69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30d </t>
-  </si>
-  <si>
-    <t>team subcontractor [4.0 #8]</t>
-  </si>
-  <si>
     <t>foundation</t>
   </si>
   <si>
@@ -162,19 +477,169 @@
     <t xml:space="preserve">39d </t>
   </si>
   <si>
-    <t>excavation</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>FS18;FS21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14d </t>
-  </si>
-  <si>
-    <t>team subcontractor</t>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>roofer [4.0 #4]</t>
+  </si>
+  <si>
+    <t>wind and water proof</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>v1 electricity</t>
+  </si>
+  <si>
+    <t>1.7.5</t>
+  </si>
+  <si>
+    <t>v1 sanitary</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>v2 sanitary</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>FS31</t>
+  </si>
+  <si>
+    <t>v2 electricity</t>
+  </si>
+  <si>
+    <t>1.8.5</t>
+  </si>
+  <si>
+    <t>v2 masonry</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>v2 screed</t>
+  </si>
+  <si>
+    <t>1.8.3</t>
+  </si>
+  <si>
+    <t>FS68;FS36</t>
+  </si>
+  <si>
+    <t>screed layer</t>
+  </si>
+  <si>
+    <t>v1 flooring</t>
+  </si>
+  <si>
+    <t>1.7.7</t>
+  </si>
+  <si>
+    <t>FS41;FS37;FS36</t>
+  </si>
+  <si>
+    <t>v2 flooring</t>
+  </si>
+  <si>
+    <t>1.8.7</t>
+  </si>
+  <si>
+    <t>FS68</t>
+  </si>
+  <si>
+    <t>v0 heating</t>
+  </si>
+  <si>
+    <t>1.5.4</t>
+  </si>
+  <si>
+    <t>heating engineer</t>
+  </si>
+  <si>
+    <t>v1 heating</t>
+  </si>
+  <si>
+    <t>1.7.4</t>
+  </si>
+  <si>
+    <t>v2 heating</t>
+  </si>
+  <si>
+    <t>1.8.4</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>103d 2h</t>
+  </si>
+  <si>
+    <t>level 1</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40d </t>
+  </si>
+  <si>
+    <t>level 2</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>completion</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65d </t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>v1 drying screed</t>
+  </si>
+  <si>
+    <t>1.7.6</t>
+  </si>
+  <si>
+    <t>FS34</t>
+  </si>
+  <si>
+    <t>FS57;FS32</t>
+  </si>
+  <si>
+    <t>v2 drying screed</t>
+  </si>
+  <si>
+    <t>1.8.6</t>
+  </si>
+  <si>
+    <t>FS56</t>
+  </si>
+  <si>
+    <t>FS58;FS32</t>
   </si>
   <si>
     <t>soil analyses</t>
@@ -189,471 +654,6 @@
     <t xml:space="preserve">2d </t>
   </si>
   <si>
-    <t>foundation beam</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>17FS;FS69</t>
-  </si>
-  <si>
-    <t>FS19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25d </t>
-  </si>
-  <si>
-    <t>team subcontractor [3.0 #8]</t>
-  </si>
-  <si>
-    <t>placing sewerage</t>
-  </si>
-  <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>FS17</t>
-  </si>
-  <si>
-    <t>FS23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10d </t>
-  </si>
-  <si>
-    <t>foundation plate</t>
-  </si>
-  <si>
-    <t>1.2.5</t>
-  </si>
-  <si>
-    <t>FS21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1d </t>
-  </si>
-  <si>
-    <t>team subcontractor [5.0 #8]</t>
-  </si>
-  <si>
-    <t>shell</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>steelframe I</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>18FS;FS23</t>
-  </si>
-  <si>
-    <t>FS20</t>
-  </si>
-  <si>
-    <t>concrete vaults I</t>
-  </si>
-  <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t>FS22</t>
-  </si>
-  <si>
-    <t>steelframe II</t>
-  </si>
-  <si>
-    <t>1.3.3</t>
-  </si>
-  <si>
-    <t>FS24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15d </t>
-  </si>
-  <si>
-    <t>concrete vaults II</t>
-  </si>
-  <si>
-    <t>1.3.4</t>
-  </si>
-  <si>
-    <t>FS25;FS49</t>
-  </si>
-  <si>
-    <t>wind and water proof</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>facades</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>FS26</t>
-  </si>
-  <si>
-    <t>team subcontractor [2.0 #8]</t>
-  </si>
-  <si>
-    <t>outside windows</t>
-  </si>
-  <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
-    <t>FS25</t>
-  </si>
-  <si>
-    <t>FS28;FS29</t>
-  </si>
-  <si>
-    <t>carpenter [3.0 #3]</t>
-  </si>
-  <si>
-    <t>roof</t>
-  </si>
-  <si>
-    <t>1.4.3</t>
-  </si>
-  <si>
-    <t>roofer [4.0 #4]</t>
-  </si>
-  <si>
-    <t>warehouse</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>103d 2h</t>
-  </si>
-  <si>
-    <t>v0 concrete</t>
-  </si>
-  <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t>FS30;FS27;FS59;FS52;FS45;FS34;FS60;FS51</t>
-  </si>
-  <si>
-    <t>v0 sanitary</t>
-  </si>
-  <si>
-    <t>1.5.2</t>
-  </si>
-  <si>
-    <t>31FS;FS28</t>
-  </si>
-  <si>
-    <t>FS35</t>
-  </si>
-  <si>
-    <t>plumber</t>
-  </si>
-  <si>
-    <t>v0 masonry</t>
-  </si>
-  <si>
-    <t>1.5.3</t>
-  </si>
-  <si>
-    <t>mason</t>
-  </si>
-  <si>
-    <t>v0 heating</t>
-  </si>
-  <si>
-    <t>1.5.4</t>
-  </si>
-  <si>
-    <t>heating engineer</t>
-  </si>
-  <si>
-    <t>v0 electricity</t>
-  </si>
-  <si>
-    <t>1.5.5</t>
-  </si>
-  <si>
-    <t>26FS;FS31</t>
-  </si>
-  <si>
-    <t>electrician</t>
-  </si>
-  <si>
-    <t>v0 floors</t>
-  </si>
-  <si>
-    <t>1.5.6</t>
-  </si>
-  <si>
-    <t>59FS;29FS;FS30</t>
-  </si>
-  <si>
-    <t>FS41;FS37</t>
-  </si>
-  <si>
-    <t>floor layer</t>
-  </si>
-  <si>
-    <t>construction leave</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
-    <t>FS53;FS55;FS56;FS61;FS54;FS30;FS27;FS59;FS52;FS45;FS34;FS60;FS51;FS29</t>
-  </si>
-  <si>
-    <t>level 1</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40d </t>
-  </si>
-  <si>
-    <t>v1 sanitary</t>
-  </si>
-  <si>
-    <t>1.7.1</t>
-  </si>
-  <si>
-    <t>v1 masonry</t>
-  </si>
-  <si>
-    <t>1.7.2</t>
-  </si>
-  <si>
-    <t>v1 screed</t>
-  </si>
-  <si>
-    <t>1.7.3</t>
-  </si>
-  <si>
-    <t>FS67</t>
-  </si>
-  <si>
-    <t>screed layer [2.0 #3]</t>
-  </si>
-  <si>
-    <t>v1 heating</t>
-  </si>
-  <si>
-    <t>1.7.4</t>
-  </si>
-  <si>
-    <t>v1 electricity</t>
-  </si>
-  <si>
-    <t>1.7.5</t>
-  </si>
-  <si>
-    <t>v1 drying screed</t>
-  </si>
-  <si>
-    <t>1.7.6</t>
-  </si>
-  <si>
-    <t>FS34</t>
-  </si>
-  <si>
-    <t>FS57;FS32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5d </t>
-  </si>
-  <si>
-    <t>v1 flooring</t>
-  </si>
-  <si>
-    <t>1.7.7</t>
-  </si>
-  <si>
-    <t>FS41;FS37;FS36</t>
-  </si>
-  <si>
-    <t>level 2</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>v2 sanitary</t>
-  </si>
-  <si>
-    <t>1.8.1</t>
-  </si>
-  <si>
-    <t>FS31</t>
-  </si>
-  <si>
-    <t>v2 masonry</t>
-  </si>
-  <si>
-    <t>1.8.2</t>
-  </si>
-  <si>
-    <t>v2 screed</t>
-  </si>
-  <si>
-    <t>1.8.3</t>
-  </si>
-  <si>
-    <t>FS68;FS36</t>
-  </si>
-  <si>
-    <t>screed layer</t>
-  </si>
-  <si>
-    <t>v2 heating</t>
-  </si>
-  <si>
-    <t>1.8.4</t>
-  </si>
-  <si>
-    <t>v2 electricity</t>
-  </si>
-  <si>
-    <t>1.8.5</t>
-  </si>
-  <si>
-    <t>v2 drying screed</t>
-  </si>
-  <si>
-    <t>1.8.6</t>
-  </si>
-  <si>
-    <t>FS56</t>
-  </si>
-  <si>
-    <t>FS58;FS32</t>
-  </si>
-  <si>
-    <t>v2 flooring</t>
-  </si>
-  <si>
-    <t>1.8.7</t>
-  </si>
-  <si>
-    <t>FS68</t>
-  </si>
-  <si>
-    <t>completion</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65d </t>
-  </si>
-  <si>
-    <t>stucco</t>
-  </si>
-  <si>
-    <t>1.9.1</t>
-  </si>
-  <si>
-    <t>68FS;FS67</t>
-  </si>
-  <si>
-    <t>plasterer [3.0 #4]</t>
-  </si>
-  <si>
-    <t>drywall</t>
-  </si>
-  <si>
-    <t>1.9.2</t>
-  </si>
-  <si>
-    <t>58FS;57FS;FS56</t>
-  </si>
-  <si>
-    <t>kitchen and bar</t>
-  </si>
-  <si>
-    <t>1.9.3</t>
-  </si>
-  <si>
-    <t>32FS;58FS;57FS;FS35</t>
-  </si>
-  <si>
-    <t>techniques</t>
-  </si>
-  <si>
-    <t>1.9.4</t>
-  </si>
-  <si>
-    <t>FS38;FS42;FS43;FS44</t>
-  </si>
-  <si>
-    <t>stairs</t>
-  </si>
-  <si>
-    <t>1.9.5</t>
-  </si>
-  <si>
-    <t>FS37</t>
-  </si>
-  <si>
-    <t>entrance doors</t>
-  </si>
-  <si>
-    <t>1.9.6</t>
-  </si>
-  <si>
-    <t>elevator</t>
-  </si>
-  <si>
-    <t>1.9.7</t>
-  </si>
-  <si>
-    <t>suspended ceiling</t>
-  </si>
-  <si>
-    <t>1.9.8</t>
-  </si>
-  <si>
-    <t>FS39</t>
-  </si>
-  <si>
-    <t>painting</t>
-  </si>
-  <si>
-    <t>1.9.9</t>
-  </si>
-  <si>
-    <t>FS38</t>
-  </si>
-  <si>
-    <t>FS40</t>
-  </si>
-  <si>
-    <t>painter [4.0 #6]</t>
-  </si>
-  <si>
-    <t>furniture</t>
-  </si>
-  <si>
-    <t>1.9.10</t>
-  </si>
-  <si>
-    <t>joiner [5.0 #5]</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -669,76 +669,76 @@
     <t>Assigned To</t>
   </si>
   <si>
+    <t>plasterer</t>
+  </si>
+  <si>
+    <t>RENEWABLE</t>
+  </si>
+  <si>
+    <t>4 #4</t>
+  </si>
+  <si>
+    <t>32[3 #4];</t>
+  </si>
+  <si>
+    <t>35;57;58;</t>
+  </si>
+  <si>
+    <t>roofer</t>
+  </si>
+  <si>
+    <t>49[4 #4];</t>
+  </si>
+  <si>
+    <t>joiner</t>
+  </si>
+  <si>
+    <t>5 #5</t>
+  </si>
+  <si>
+    <t>40[5 #5];</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>3 #3</t>
+  </si>
+  <si>
+    <t>26[3 #3];</t>
+  </si>
+  <si>
+    <t>8 #8</t>
+  </si>
+  <si>
+    <t>6[4 #8];17;18[3 #8];19[4 #8];20[4 #8];21[3 #8];22[3 #8];23[5 #8];24[4 #8];25[2 #8];28[5 #8];69;</t>
+  </si>
+  <si>
+    <t>2 #2</t>
+  </si>
+  <si>
+    <t>59;60;</t>
+  </si>
+  <si>
+    <t>29;51;54;61;</t>
+  </si>
+  <si>
+    <t>27;45;55;</t>
+  </si>
+  <si>
     <t>painter</t>
   </si>
   <si>
-    <t>RENEWABLE</t>
-  </si>
-  <si>
     <t>6 #6</t>
   </si>
   <si>
     <t>39[4 #6];</t>
   </si>
   <si>
-    <t>4 #4</t>
-  </si>
-  <si>
-    <t>27;45;55;</t>
-  </si>
-  <si>
-    <t>plasterer</t>
-  </si>
-  <si>
-    <t>32[3 #4];</t>
-  </si>
-  <si>
-    <t>3 #3</t>
-  </si>
-  <si>
     <t>34[2 #3];56;</t>
   </si>
   <si>
-    <t>roofer</t>
-  </si>
-  <si>
-    <t>49[4 #4];</t>
-  </si>
-  <si>
-    <t>8 #8</t>
-  </si>
-  <si>
-    <t>6[4 #8];17;69;18[3 #8];21[3 #8];23[5 #8];19[4 #8];20[4 #8];22[3 #8];24[4 #8];25[2 #8];28[5 #8];</t>
-  </si>
-  <si>
-    <t>35;57;58;</t>
-  </si>
-  <si>
-    <t>joiner</t>
-  </si>
-  <si>
-    <t>5 #5</t>
-  </si>
-  <si>
-    <t>40[5 #5];</t>
-  </si>
-  <si>
-    <t>carpenter</t>
-  </si>
-  <si>
-    <t>26[3 #3];</t>
-  </si>
-  <si>
-    <t>29;51;61;54;</t>
-  </si>
-  <si>
     <t>30;52;53;</t>
-  </si>
-  <si>
-    <t>2 #2</t>
-  </si>
-  <si>
-    <t>59;60;</t>
   </si>
   <si>
     <t>Activity Duration Distribution Profiles</t>
@@ -1339,72 +1339,76 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2">
-        <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8">
         <v>38824.3333333333</v>
       </c>
-      <c r="G4" s="4">
-        <v>39059.7083333333</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>216786.9844</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>253804.5938</v>
+      <c r="G4" s="9">
+        <v>38905.7083333333</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>75</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="8">
-        <v>38824.3333333333</v>
+        <v>38908.3333333333</v>
       </c>
       <c r="G5" s="9">
-        <v>38905.7083333333</v>
+        <v>38933.7083333333</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="10">
         <v>0</v>
       </c>
       <c r="K5" s="11">
-        <v>75</v>
+        <v>210000</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -1413,40 +1417,36 @@
         <v>0</v>
       </c>
       <c r="N5" s="10">
-        <v>75</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8">
+        <v>38824.3333333333</v>
+      </c>
+      <c r="G6" s="9">
+        <v>38849.7083333333</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="8">
-        <v>38908.3333333333</v>
-      </c>
-      <c r="G6" s="9">
-        <v>38933.7083333333</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="10">
         <v>0</v>
       </c>
       <c r="K6" s="11">
-        <v>210000</v>
+        <v>3765.3101</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -1455,18 +1455,18 @@
         <v>0</v>
       </c>
       <c r="N6" s="10">
-        <v>210000</v>
+        <v>3765.3101</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1474,17 +1474,17 @@
         <v>38824.3333333333</v>
       </c>
       <c r="G7" s="9">
-        <v>38849.7083333333</v>
+        <v>38905.7083333333</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="10">
         <v>0</v>
       </c>
       <c r="K7" s="11">
-        <v>3765.3101</v>
+        <v>1876.54</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -1493,36 +1493,42 @@
         <v>0</v>
       </c>
       <c r="N7" s="10">
-        <v>3765.3101</v>
+        <v>1876.54</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
       <c r="F8" s="8">
-        <v>38824.3333333333</v>
+        <v>39020.3333333333</v>
       </c>
       <c r="G8" s="9">
-        <v>38905.7083333333</v>
+        <v>39059.7083333333</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J8" s="10">
-        <v>0</v>
+        <v>37017.6016</v>
       </c>
       <c r="K8" s="11">
-        <v>1876.54</v>
+        <v>1070.11</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
@@ -1531,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="10">
-        <v>1876.54</v>
+        <v>38087.7109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1539,16 +1545,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="8">
         <v>38936.3333333333</v>
@@ -1557,7 +1563,7 @@
         <v>39017.7083333333</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="10">
@@ -1578,37 +1584,37 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="8">
-        <v>39020.3333333333</v>
+        <v>39062.3333333333</v>
       </c>
       <c r="G10" s="9">
-        <v>39059.7083333333</v>
+        <v>39079.7083333333</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J10" s="10">
-        <v>37017.6016</v>
+        <v>4318.7207</v>
       </c>
       <c r="K10" s="11">
-        <v>1070.11</v>
+        <v>26000</v>
       </c>
       <c r="L10" s="12">
         <v>0</v>
@@ -1617,80 +1623,86 @@
         <v>0</v>
       </c>
       <c r="N10" s="10">
-        <v>38087.7109</v>
+        <v>30318.7207</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4">
-        <v>39062.3333333333</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8">
+        <v>39080.3333333333</v>
+      </c>
+      <c r="G11" s="9">
         <v>39114.7083333333</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>362567.875</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>401436.375</v>
+      <c r="H11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="10">
+        <v>23136</v>
+      </c>
+      <c r="K11" s="11">
+        <v>98523.7266</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>121659.7266</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F12" s="8">
-        <v>39062.3333333333</v>
+        <v>39115.3333333333</v>
       </c>
       <c r="G12" s="9">
-        <v>39079.7083333333</v>
+        <v>39142.7083333333</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J12" s="10">
-        <v>4318.7207</v>
+        <v>24678.3984</v>
       </c>
       <c r="K12" s="11">
-        <v>26000</v>
+        <v>118992.5078</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
@@ -1699,42 +1711,42 @@
         <v>0</v>
       </c>
       <c r="N12" s="10">
-        <v>30318.7207</v>
+        <v>143670.9062</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F13" s="8">
-        <v>39062.3333333333</v>
+        <v>39143.3333333333</v>
       </c>
       <c r="G13" s="9">
-        <v>39063.7083333333</v>
+        <v>39156.7083333333</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J13" s="10">
-        <v>616.96</v>
+        <v>12339.2031</v>
       </c>
       <c r="K13" s="11">
-        <v>2000</v>
+        <v>117409.7188</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
@@ -1743,42 +1755,42 @@
         <v>0</v>
       </c>
       <c r="N13" s="10">
-        <v>2616.96</v>
+        <v>129748.9219</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F14" s="8">
         <v>39080.3333333333</v>
       </c>
       <c r="G14" s="9">
-        <v>39114.7083333333</v>
+        <v>39093.7083333333</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J14" s="10">
-        <v>23136</v>
+        <v>9254.4004</v>
       </c>
       <c r="K14" s="11">
-        <v>98523.7266</v>
+        <v>1224.73</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
@@ -1787,42 +1799,42 @@
         <v>0</v>
       </c>
       <c r="N14" s="10">
-        <v>121659.7266</v>
+        <v>10479.1309</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="8">
-        <v>39080.3333333333</v>
+        <v>39157.3333333333</v>
       </c>
       <c r="G15" s="9">
-        <v>39093.7083333333</v>
+        <v>39177.7083333333</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J15" s="10">
-        <v>9254.4004</v>
+        <v>13881.6016</v>
       </c>
       <c r="K15" s="11">
-        <v>1224.73</v>
+        <v>118992.5078</v>
       </c>
       <c r="L15" s="12">
         <v>0</v>
@@ -1831,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="10">
-        <v>10479.1309</v>
+        <v>132874.1094</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1839,16 +1851,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F16" s="8">
         <v>39094.3333333333</v>
@@ -1857,10 +1869,10 @@
         <v>39094.7083333333</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" s="10">
         <v>1542.4062</v>
@@ -1879,76 +1891,82 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="6">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4">
-        <v>39115.3333333333</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="C17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="8">
+        <v>39178.3333333333</v>
+      </c>
+      <c r="G17" s="9">
         <v>39198.7083333333</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>472804.4375</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>542212.4375</v>
+      <c r="H17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="10">
+        <v>18508.7969</v>
+      </c>
+      <c r="K17" s="11">
+        <v>117409.7188</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>135918.5156</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="6">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="8">
-        <v>39115.3333333333</v>
+        <v>39199.3333333333</v>
       </c>
       <c r="G18" s="9">
-        <v>39142.7083333333</v>
+        <v>39226.7083333333</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J18" s="10">
-        <v>24678.3984</v>
+        <v>12339.1875</v>
       </c>
       <c r="K18" s="11">
-        <v>118992.5078</v>
+        <v>339314</v>
       </c>
       <c r="L18" s="12">
         <v>0</v>
@@ -1957,42 +1975,42 @@
         <v>0</v>
       </c>
       <c r="N18" s="10">
-        <v>143670.9062</v>
+        <v>351653.1875</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="6">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="8">
+        <v>39227.3333333333</v>
+      </c>
+      <c r="G19" s="9">
+        <v>39240.7083333333</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="8">
-        <v>39143.3333333333</v>
-      </c>
-      <c r="G19" s="9">
-        <v>39156.7083333333</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="J19" s="10">
-        <v>12339.2031</v>
+        <v>9120</v>
       </c>
       <c r="K19" s="11">
-        <v>117409.7188</v>
+        <v>150750.5938</v>
       </c>
       <c r="L19" s="12">
         <v>0</v>
@@ -2001,86 +2019,84 @@
         <v>0</v>
       </c>
       <c r="N19" s="10">
-        <v>129748.9219</v>
+        <v>159870.5938</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="8">
-        <v>39157.3333333333</v>
+        <v>39323.4166666667</v>
       </c>
       <c r="G20" s="9">
-        <v>39177.7083333333</v>
+        <v>39337.4166666667</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="J20" s="10">
-        <v>13881.6016</v>
+        <v>3252</v>
       </c>
       <c r="K20" s="11">
-        <v>118992.5078</v>
+        <v>31200.9609</v>
       </c>
       <c r="L20" s="12">
-        <v>0</v>
+        <v>40.65</v>
       </c>
       <c r="M20" s="11">
-        <v>0</v>
+        <v>3252</v>
       </c>
       <c r="N20" s="10">
-        <v>132874.1094</v>
+        <v>37704.9609</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F21" s="8">
-        <v>39178.3333333333</v>
+        <v>39241.3333333333</v>
       </c>
       <c r="G21" s="9">
-        <v>39198.7083333333</v>
+        <v>39254.7083333333</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J21" s="10">
-        <v>18508.7969</v>
+        <v>15424</v>
       </c>
       <c r="K21" s="11">
-        <v>117409.7188</v>
+        <v>134400</v>
       </c>
       <c r="L21" s="12">
         <v>0</v>
@@ -2089,80 +2105,86 @@
         <v>0</v>
       </c>
       <c r="N21" s="10">
-        <v>135918.5156</v>
+        <v>149824</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="2">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4">
-        <v>39199.3333333333</v>
-      </c>
-      <c r="G22" s="4">
-        <v>39240.7083333333</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>560844.1875</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5">
-        <v>597047.375</v>
+      <c r="A22" s="6">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="8">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G22" s="9">
+        <v>39358.4166666667</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="10">
+        <v>6400</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <v>6400</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F23" s="8">
-        <v>39199.3333333333</v>
+        <v>39323.4166666667</v>
       </c>
       <c r="G23" s="9">
-        <v>39226.7083333333</v>
+        <v>39337.4166666667</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J23" s="10">
-        <v>12339.1875</v>
+        <v>2880</v>
       </c>
       <c r="K23" s="11">
-        <v>339314</v>
+        <v>4793</v>
       </c>
       <c r="L23" s="12">
         <v>0</v>
@@ -2171,42 +2193,38 @@
         <v>0</v>
       </c>
       <c r="N23" s="10">
-        <v>351653.1875</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>97</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F24" s="8">
-        <v>39227.3333333333</v>
+        <v>39309.4166666667</v>
       </c>
       <c r="G24" s="9">
-        <v>39240.7083333333</v>
+        <v>39323.4166666667</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="10">
-        <v>9120</v>
+        <v>0</v>
       </c>
       <c r="K24" s="11">
-        <v>150750.5938</v>
+        <v>0.01</v>
       </c>
       <c r="L24" s="12">
         <v>0</v>
@@ -2215,122 +2233,130 @@
         <v>0</v>
       </c>
       <c r="N24" s="10">
-        <v>159870.5938</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="6">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="F25" s="8">
-        <v>39199.3333333333</v>
+        <v>39351.4166666667</v>
       </c>
       <c r="G25" s="9">
-        <v>39212.7083333333</v>
+        <v>39372.4166666667</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J25" s="10">
-        <v>11520</v>
+        <v>14896.8008</v>
       </c>
       <c r="K25" s="11">
-        <v>70779.5703</v>
+        <v>8642</v>
       </c>
       <c r="L25" s="12">
-        <v>40.3</v>
+        <v>0</v>
       </c>
       <c r="M25" s="11">
-        <v>3224</v>
+        <v>0</v>
       </c>
       <c r="N25" s="10">
-        <v>85523.5703</v>
+        <v>23538.8008</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="2">
-        <v>62</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4">
-        <v>39241.3333333333</v>
-      </c>
-      <c r="G26" s="4">
-        <v>39386.4166666667</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="5">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5">
-        <v>257044.9688</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0</v>
-      </c>
-      <c r="M26" s="5">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5">
-        <v>301814.5625</v>
+      <c r="A26" s="6">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="8">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G26" s="9">
+        <v>39344.4166666667</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>106140</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <v>106140</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="6">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="F27" s="8">
-        <v>39241.3333333333</v>
+        <v>39358.4166666667</v>
       </c>
       <c r="G27" s="9">
-        <v>39254.7083333333</v>
+        <v>39386.4166666667</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="J27" s="10">
-        <v>15424</v>
+        <v>6649.6016</v>
       </c>
       <c r="K27" s="11">
-        <v>134400</v>
+        <v>75000</v>
       </c>
       <c r="L27" s="12">
         <v>0</v>
@@ -2339,42 +2365,38 @@
         <v>0</v>
       </c>
       <c r="N27" s="10">
-        <v>149824</v>
+        <v>81649.6016</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="8">
-        <v>39323.4166666667</v>
+        <v>39379.4166666667</v>
       </c>
       <c r="G28" s="9">
-        <v>39337.4166666667</v>
+        <v>39414.4166666667</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="10">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="K28" s="11">
-        <v>4793</v>
+        <v>48000</v>
       </c>
       <c r="L28" s="12">
         <v>0</v>
@@ -2383,84 +2405,82 @@
         <v>0</v>
       </c>
       <c r="N28" s="10">
-        <v>7673</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="6">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="F29" s="8">
-        <v>39323.4166666667</v>
+        <v>39386.4166666667</v>
       </c>
       <c r="G29" s="9">
-        <v>39337.4166666667</v>
+        <v>39407.4166666667</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="10">
-        <v>3252</v>
+        <v>0</v>
       </c>
       <c r="K29" s="11">
-        <v>31200.9609</v>
+        <v>2156.0601</v>
       </c>
       <c r="L29" s="12">
-        <v>40.65</v>
+        <v>0</v>
       </c>
       <c r="M29" s="11">
-        <v>3252</v>
+        <v>0</v>
       </c>
       <c r="N29" s="10">
-        <v>37704.9609</v>
+        <v>2156.0601</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="6">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F30" s="8">
-        <v>39323.4166666667</v>
+        <v>39407.4166666667</v>
       </c>
       <c r="G30" s="9">
-        <v>39351.4166666667</v>
+        <v>39414.4166666667</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="10">
-        <v>6912</v>
+        <v>0</v>
       </c>
       <c r="K30" s="11">
-        <v>11651</v>
+        <v>32000</v>
       </c>
       <c r="L30" s="12">
         <v>0</v>
@@ -2469,42 +2489,42 @@
         <v>0</v>
       </c>
       <c r="N30" s="10">
-        <v>18563</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="6">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F31" s="8">
-        <v>39323.4166666667</v>
+        <v>39414.4166666667</v>
       </c>
       <c r="G31" s="9">
-        <v>39358.4166666667</v>
+        <v>39435.4166666667</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J31" s="10">
-        <v>6400</v>
+        <v>16800</v>
       </c>
       <c r="K31" s="11">
-        <v>0</v>
+        <v>83000</v>
       </c>
       <c r="L31" s="12">
         <v>0</v>
@@ -2513,120 +2533,120 @@
         <v>0</v>
       </c>
       <c r="N31" s="10">
-        <v>6400</v>
+        <v>99800</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="6">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="8">
-        <v>39358.4166666667</v>
+        <v>39435.4166666667</v>
       </c>
       <c r="G32" s="9">
+        <v>39442.4166666667</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="10">
+        <v>8400</v>
+      </c>
+      <c r="K32" s="11">
+        <v>130000</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <v>138400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="8">
         <v>39386.4166666667</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J32" s="10">
-        <v>6649.6016</v>
-      </c>
-      <c r="K32" s="11">
-        <v>75000</v>
-      </c>
-      <c r="L32" s="12">
-        <v>0</v>
-      </c>
-      <c r="M32" s="11">
-        <v>0</v>
-      </c>
-      <c r="N32" s="10">
-        <v>81649.6016</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="2">
-        <v>66</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4">
-        <v>39309.4166666667</v>
-      </c>
-      <c r="G33" s="4">
-        <v>39323.4166666667</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0</v>
-      </c>
-      <c r="M33" s="5">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5">
-        <v>0.01</v>
+      <c r="G33" s="9">
+        <v>39407.4166666667</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="10">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>87000</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
+        <v>87000</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="6">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>132</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="8">
-        <v>39309.4166666667</v>
+        <v>39407.4166666667</v>
       </c>
       <c r="G34" s="9">
-        <v>39323.4166666667</v>
+        <v>39421.4166666667</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="10">
         <v>0</v>
       </c>
       <c r="K34" s="11">
-        <v>0.01</v>
+        <v>16000</v>
       </c>
       <c r="L34" s="12">
         <v>0</v>
@@ -2635,78 +2655,78 @@
         <v>0</v>
       </c>
       <c r="N34" s="10">
-        <v>0.01</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="2">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4">
-        <v>39323.4166666667</v>
-      </c>
-      <c r="G35" s="4">
-        <v>39379.4166666667</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="5">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5">
-        <v>226284.9844</v>
-      </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
-      <c r="M35" s="5">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5">
-        <v>262542.5938</v>
+      <c r="A35" s="6">
+        <v>43</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="8">
+        <v>39407.4166666667</v>
+      </c>
+      <c r="G35" s="9">
+        <v>39414.4166666667</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>38817.8516</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10">
+        <v>38817.8516</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="6">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="8">
-        <v>39323.4166666667</v>
+        <v>39407.4166666667</v>
       </c>
       <c r="G36" s="9">
-        <v>39337.4166666667</v>
+        <v>39421.4166666667</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="10">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="K36" s="11">
-        <v>4793</v>
+        <v>33000</v>
       </c>
       <c r="L36" s="12">
         <v>0</v>
@@ -2715,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="10">
-        <v>7673</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2723,13 +2743,13 @@
         <v>45</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="8">
@@ -2739,10 +2759,10 @@
         <v>39337.4166666667</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="J37" s="10">
         <v>3252</v>
@@ -2761,269 +2781,253 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="6">
-        <v>34</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="8">
-        <v>39323.4166666667</v>
-      </c>
-      <c r="G38" s="9">
-        <v>39344.4166666667</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>106140</v>
-      </c>
-      <c r="L38" s="12">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-      <c r="N38" s="10">
-        <v>106140</v>
+      <c r="A38" s="2">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4">
+        <v>38824.3333333333</v>
+      </c>
+      <c r="G38" s="4">
+        <v>39059.7083333333</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>216786.9844</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>253804.5938</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="6">
-        <v>60</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="8">
-        <v>39323.4166666667</v>
-      </c>
-      <c r="G39" s="9">
-        <v>39351.4166666667</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J39" s="10">
-        <v>6912</v>
-      </c>
-      <c r="K39" s="11">
-        <v>11651</v>
-      </c>
-      <c r="L39" s="12">
-        <v>43.2</v>
-      </c>
-      <c r="M39" s="11">
-        <v>6912</v>
-      </c>
-      <c r="N39" s="10">
-        <v>25475</v>
+      <c r="A39" s="2">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4">
+        <v>39062.3333333333</v>
+      </c>
+      <c r="G39" s="4">
+        <v>39114.7083333333</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>362567.875</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>401436.375</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="6">
-        <v>51</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="8">
-        <v>39323.4166666667</v>
-      </c>
-      <c r="G40" s="9">
-        <v>39358.4166666667</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J40" s="10">
-        <v>6400</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="12">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-      <c r="N40" s="10">
-        <v>6400</v>
+      <c r="A40" s="2">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4">
+        <v>39115.3333333333</v>
+      </c>
+      <c r="G40" s="4">
+        <v>39198.7083333333</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>472804.4375</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>542212.4375</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="6">
+        <v>49</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="8">
-        <v>39344.4166666667</v>
+        <v>39199.3333333333</v>
       </c>
       <c r="G41" s="9">
-        <v>39351.4166666667</v>
+        <v>39212.7083333333</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I41" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="J41" s="10">
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="K41" s="11">
-        <v>0.01</v>
+        <v>70779.5703</v>
       </c>
       <c r="L41" s="12">
-        <v>0</v>
+        <v>40.3</v>
       </c>
       <c r="M41" s="11">
-        <v>0</v>
+        <v>3224</v>
       </c>
       <c r="N41" s="10">
-        <v>0.01</v>
+        <v>85523.5703</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="6">
-        <v>57</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" s="8">
-        <v>39351.4166666667</v>
-      </c>
-      <c r="G42" s="9">
-        <v>39379.4166666667</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" s="10">
-        <v>6649.6016</v>
-      </c>
-      <c r="K42" s="11">
-        <v>72500</v>
-      </c>
-      <c r="L42" s="12">
-        <v>0</v>
-      </c>
-      <c r="M42" s="11">
-        <v>0</v>
-      </c>
-      <c r="N42" s="10">
-        <v>79149.6016</v>
+      <c r="A42" s="2">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4">
+        <v>39199.3333333333</v>
+      </c>
+      <c r="G42" s="4">
+        <v>39240.7083333333</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>560844.1875</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>597047.375</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="2">
-        <v>64</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4">
+      <c r="A43" s="6">
+        <v>51</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8">
         <v>39323.4166666667</v>
       </c>
-      <c r="G43" s="4">
-        <v>39379.4166666667</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5">
-        <v>125260.9688</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0</v>
-      </c>
-      <c r="M43" s="5">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5">
-        <v>149562.5625</v>
+      <c r="G43" s="9">
+        <v>39358.4166666667</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" s="10">
+        <v>6400</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="12">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10">
+        <v>6400</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="8">
@@ -3033,10 +3037,10 @@
         <v>39337.4166666667</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J44" s="10">
         <v>2880</v>
@@ -3056,16 +3060,16 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="8">
@@ -3075,16 +3079,16 @@
         <v>39337.4166666667</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="J45" s="10">
-        <v>3252</v>
+        <v>2880</v>
       </c>
       <c r="K45" s="11">
-        <v>31200.9609</v>
+        <v>4793</v>
       </c>
       <c r="L45" s="12">
         <v>0</v>
@@ -3093,42 +3097,40 @@
         <v>0</v>
       </c>
       <c r="N45" s="10">
-        <v>34452.9609</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>165</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="8">
         <v>39323.4166666667</v>
       </c>
       <c r="G46" s="9">
-        <v>39344.4166666667</v>
+        <v>39358.4166666667</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="J46" s="10">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="K46" s="11">
-        <v>46116</v>
+        <v>0</v>
       </c>
       <c r="L46" s="12">
         <v>0</v>
@@ -3137,40 +3139,40 @@
         <v>0</v>
       </c>
       <c r="N46" s="10">
-        <v>46116</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="6">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="8">
         <v>39323.4166666667</v>
       </c>
       <c r="G47" s="9">
-        <v>39351.4166666667</v>
+        <v>39337.4166666667</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J47" s="10">
-        <v>5120</v>
+        <v>3252</v>
       </c>
       <c r="K47" s="11">
-        <v>11651</v>
+        <v>31200.9609</v>
       </c>
       <c r="L47" s="12">
         <v>0</v>
@@ -3179,40 +3181,42 @@
         <v>0</v>
       </c>
       <c r="N47" s="10">
-        <v>16771</v>
+        <v>34452.9609</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="6"/>
+        <v>166</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="F48" s="8">
         <v>39323.4166666667</v>
       </c>
       <c r="G48" s="9">
-        <v>39358.4166666667</v>
+        <v>39344.4166666667</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="J48" s="10">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="K48" s="11">
-        <v>0</v>
+        <v>46116</v>
       </c>
       <c r="L48" s="12">
         <v>0</v>
@@ -3221,40 +3225,42 @@
         <v>0</v>
       </c>
       <c r="N48" s="10">
-        <v>6400</v>
+        <v>46116</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="6">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F49" s="8">
-        <v>39344.4166666667</v>
+        <v>39351.4166666667</v>
       </c>
       <c r="G49" s="9">
-        <v>39351.4166666667</v>
+        <v>39379.4166666667</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I49" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J49" s="10">
-        <v>0</v>
+        <v>6649.6016</v>
       </c>
       <c r="K49" s="11">
-        <v>0.01</v>
+        <v>72500</v>
       </c>
       <c r="L49" s="12">
         <v>0</v>
@@ -3263,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="10">
-        <v>0.01</v>
+        <v>79149.6016</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3271,16 +3277,16 @@
         <v>58</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="F50" s="8">
         <v>39351.4166666667</v>
@@ -3289,10 +3295,10 @@
         <v>39379.4166666667</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J50" s="10">
         <v>6649.6016</v>
@@ -3311,360 +3317,354 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="2">
-        <v>65</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="4">
+      <c r="A51" s="6">
+        <v>59</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="8">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G51" s="9">
         <v>39351.4166666667</v>
       </c>
-      <c r="G51" s="4">
-        <v>39442.4166666667</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="5">
-        <v>0</v>
-      </c>
-      <c r="K51" s="5">
-        <v>478615.9062</v>
-      </c>
-      <c r="L51" s="5">
-        <v>0</v>
-      </c>
-      <c r="M51" s="5">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5">
-        <v>518712.7188</v>
+      <c r="H51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="10">
+        <v>6912</v>
+      </c>
+      <c r="K51" s="11">
+        <v>11651</v>
+      </c>
+      <c r="L51" s="12">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
+      <c r="N51" s="10">
+        <v>18563</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="6">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="8">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G52" s="9">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" s="8">
-        <v>39351.4166666667</v>
-      </c>
-      <c r="G52" s="9">
-        <v>39372.4166666667</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="J52" s="10">
-        <v>14896.8008</v>
+        <v>6912</v>
       </c>
       <c r="K52" s="11">
-        <v>8642</v>
+        <v>11651</v>
       </c>
       <c r="L52" s="12">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="M52" s="11">
-        <v>0</v>
+        <v>6912</v>
       </c>
       <c r="N52" s="10">
-        <v>23538.8008</v>
+        <v>25475</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="6">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="8">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G53" s="9">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53" s="10">
+        <v>5120</v>
+      </c>
+      <c r="K53" s="11">
+        <v>11651</v>
+      </c>
+      <c r="L53" s="12">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+      <c r="N53" s="10">
+        <v>16771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="2">
+        <v>62</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4">
+        <v>39241.3333333333</v>
+      </c>
+      <c r="G54" s="4">
+        <v>39386.4166666667</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5">
+        <v>257044.9688</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>301814.5625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="2">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G55" s="4">
         <v>39379.4166666667</v>
       </c>
-      <c r="G53" s="9">
-        <v>39414.4166666667</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="10">
-        <v>0</v>
-      </c>
-      <c r="K53" s="11">
-        <v>48000</v>
-      </c>
-      <c r="L53" s="12">
-        <v>0</v>
-      </c>
-      <c r="M53" s="11">
-        <v>0</v>
-      </c>
-      <c r="N53" s="10">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="6">
-        <v>41</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="8">
-        <v>39386.4166666667</v>
-      </c>
-      <c r="G54" s="9">
-        <v>39407.4166666667</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="10">
-        <v>0</v>
-      </c>
-      <c r="K54" s="11">
-        <v>87000</v>
-      </c>
-      <c r="L54" s="12">
-        <v>0</v>
-      </c>
-      <c r="M54" s="11">
-        <v>0</v>
-      </c>
-      <c r="N54" s="10">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="6">
-        <v>37</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="H55" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F55" s="8">
-        <v>39386.4166666667</v>
-      </c>
-      <c r="G55" s="9">
-        <v>39407.4166666667</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="10">
-        <v>0</v>
-      </c>
-      <c r="K55" s="11">
-        <v>2156.0601</v>
-      </c>
-      <c r="L55" s="12">
-        <v>0</v>
-      </c>
-      <c r="M55" s="11">
-        <v>0</v>
-      </c>
-      <c r="N55" s="10">
-        <v>2156.0601</v>
+      <c r="I55" s="3"/>
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
+        <v>226284.9844</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="5">
+        <v>262542.5938</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="6">
-        <v>44</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="2">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="G56" s="4">
+        <v>39379.4166666667</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5">
+        <v>125260.9688</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>149562.5625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="2">
+        <v>65</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="8">
-        <v>39407.4166666667</v>
-      </c>
-      <c r="G56" s="9">
-        <v>39421.4166666667</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="10">
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <v>33000</v>
-      </c>
-      <c r="L56" s="12">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-      <c r="N56" s="10">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="6">
-        <v>42</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4">
+        <v>39351.4166666667</v>
+      </c>
+      <c r="G57" s="4">
+        <v>39442.4166666667</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="8">
-        <v>39407.4166666667</v>
-      </c>
-      <c r="G57" s="9">
-        <v>39421.4166666667</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="10">
-        <v>0</v>
-      </c>
-      <c r="K57" s="11">
-        <v>16000</v>
-      </c>
-      <c r="L57" s="12">
-        <v>0</v>
-      </c>
-      <c r="M57" s="11">
-        <v>0</v>
-      </c>
-      <c r="N57" s="10">
-        <v>16000</v>
+      <c r="I57" s="3"/>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <v>478615.9062</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+      <c r="N57" s="5">
+        <v>518712.7188</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="6">
-        <v>43</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="2">
+        <v>66</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="8">
-        <v>39407.4166666667</v>
-      </c>
-      <c r="G58" s="9">
-        <v>39414.4166666667</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="10">
-        <v>0</v>
-      </c>
-      <c r="K58" s="11">
-        <v>38817.8516</v>
-      </c>
-      <c r="L58" s="12">
-        <v>0</v>
-      </c>
-      <c r="M58" s="11">
-        <v>0</v>
-      </c>
-      <c r="N58" s="10">
-        <v>38817.8516</v>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4">
+        <v>39309.4166666667</v>
+      </c>
+      <c r="G58" s="4">
+        <v>39323.4166666667</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="6">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>203</v>
       </c>
       <c r="F59" s="8">
-        <v>39407.4166666667</v>
+        <v>39344.4166666667</v>
       </c>
       <c r="G59" s="9">
-        <v>39414.4166666667</v>
+        <v>39351.4166666667</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="10">
         <v>0</v>
       </c>
       <c r="K59" s="11">
-        <v>32000</v>
+        <v>0.01</v>
       </c>
       <c r="L59" s="12">
         <v>0</v>
@@ -3673,12 +3673,12 @@
         <v>0</v>
       </c>
       <c r="N59" s="10">
-        <v>32000</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="6">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>204</v>
@@ -3693,22 +3693,20 @@
         <v>207</v>
       </c>
       <c r="F60" s="8">
-        <v>39414.4166666667</v>
+        <v>39344.4166666667</v>
       </c>
       <c r="G60" s="9">
-        <v>39435.4166666667</v>
+        <v>39351.4166666667</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>208</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="I60" s="2"/>
       <c r="J60" s="10">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="K60" s="11">
-        <v>83000</v>
+        <v>0.01</v>
       </c>
       <c r="L60" s="12">
         <v>0</v>
@@ -3717,40 +3715,42 @@
         <v>0</v>
       </c>
       <c r="N60" s="10">
-        <v>99800</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="6">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E61" s="6"/>
       <c r="F61" s="8">
-        <v>39435.4166666667</v>
+        <v>39062.3333333333</v>
       </c>
       <c r="G61" s="9">
-        <v>39442.4166666667</v>
+        <v>39063.7083333333</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="J61" s="10">
-        <v>8400</v>
+        <v>616.96</v>
       </c>
       <c r="K61" s="11">
-        <v>130000</v>
+        <v>2000</v>
       </c>
       <c r="L61" s="12">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="10">
-        <v>138400</v>
+        <v>2616.96</v>
       </c>
     </row>
   </sheetData>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>217</v>
@@ -3845,18 +3845,18 @@
         <v>0</v>
       </c>
       <c r="F3" s="13">
-        <v>35</v>
+        <v>41.38</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>220</v>
       </c>
       <c r="H3" s="5">
-        <v>16800</v>
+        <v>14896.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>116</v>
@@ -3865,53 +3865,53 @@
         <v>218</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>41.56</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>40.65</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="H4" s="5">
-        <v>9756</v>
+        <v>19948.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="F5" s="13">
-        <v>41.38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H5" s="5">
-        <v>14896.8</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>218</v>
@@ -3923,18 +3923,18 @@
         <v>0</v>
       </c>
       <c r="F6" s="13">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>226</v>
       </c>
       <c r="H6" s="5">
-        <v>0</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>227</v>
@@ -3943,19 +3943,19 @@
         <v>218</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
       </c>
       <c r="F7" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H7" s="5">
-        <v>11520</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3963,13 +3963,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>38.56</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H8" s="5">
         <v>173057.28</v>
@@ -3986,158 +3986,158 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
       </c>
       <c r="F9" s="13">
-        <v>41.56</v>
+        <v>43.2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H9" s="5">
-        <v>19948.8</v>
+        <v>13824</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>234</v>
       </c>
       <c r="H10" s="5">
-        <v>8400</v>
+        <v>24320</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
       </c>
       <c r="F11" s="13">
-        <v>38</v>
+        <v>40.65</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H11" s="5">
-        <v>9120</v>
+        <v>9756</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H12" s="5">
-        <v>24320</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H13" s="5">
-        <v>8640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
       </c>
       <c r="F14" s="13">
-        <v>43.2</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>240</v>
       </c>
       <c r="H14" s="5">
-        <v>13824</v>
+        <v>8640</v>
       </c>
     </row>
   </sheetData>
@@ -4218,75 +4218,83 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3">
-        <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="2">
+        <v>402</v>
+      </c>
+      <c r="F4" s="2">
+        <v>480</v>
+      </c>
+      <c r="G4" s="2">
+        <v>812</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E5" s="2">
-        <v>402</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="G5" s="2">
-        <v>812</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E6" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2">
-        <v>326</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>247</v>
@@ -4303,25 +4311,25 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E8" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="F8" s="2">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="G8" s="2">
-        <v>120</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4329,10 +4337,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>248</v>
@@ -4349,132 +4357,140 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="2">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="2">
-        <v>219</v>
-      </c>
-      <c r="F10" s="2">
-        <v>240</v>
-      </c>
-      <c r="G10" s="2">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="2">
+        <v>159</v>
+      </c>
+      <c r="F11" s="2">
+        <v>200</v>
+      </c>
+      <c r="G11" s="2">
+        <v>363</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E12" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G12" s="2">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13" s="2">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E14" s="2">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G14" s="2">
-        <v>363</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E15" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2">
         <v>80</v>
       </c>
       <c r="G15" s="2">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4482,10 +4498,10 @@
         <v>23</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>246</v>
@@ -4501,423 +4517,463 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3">
-        <v>48</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="7">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="2">
+        <v>66</v>
+      </c>
+      <c r="F17" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2">
+        <v>121</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E18" s="2">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="F18" s="2">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G18" s="2">
-        <v>166</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E19" s="2">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G19" s="2">
-        <v>48</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E20" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G20" s="2">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E21" s="2">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G21" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3">
-        <v>50</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="A22" s="7">
+        <v>29</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="2">
+        <v>99</v>
+      </c>
+      <c r="F22" s="2">
+        <v>100</v>
+      </c>
+      <c r="G22" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E23" s="2">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G23" s="2">
-        <v>463</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E24" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F24" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G24" s="2">
-        <v>175</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="7">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="2">
+        <v>96</v>
+      </c>
+      <c r="F25" s="2">
+        <v>120</v>
+      </c>
+      <c r="G25" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7">
+        <v>34</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="2">
+        <v>99</v>
+      </c>
+      <c r="F26" s="2">
         <v>100</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="2">
-        <v>80</v>
-      </c>
-      <c r="F25" s="2">
-        <v>100</v>
-      </c>
-      <c r="G25" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3">
-        <v>62</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E27" s="2">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="F27" s="2">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="G27" s="2">
-        <v>120</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="7">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E28" s="2">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="F28" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G28" s="2">
-        <v>101</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E29" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F29" s="2">
         <v>100</v>
       </c>
       <c r="G29" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E30" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F30" s="2">
         <v>100</v>
       </c>
       <c r="G30" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E31" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F31" s="2">
         <v>100</v>
       </c>
       <c r="G31" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E32" s="2">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="F32" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="G32" s="2">
-        <v>543</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3">
-        <v>66</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="7">
+        <v>41</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="2">
+        <v>80</v>
+      </c>
+      <c r="F33" s="2">
+        <v>100</v>
+      </c>
+      <c r="G33" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="7">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E34" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2">
         <v>100</v>
       </c>
       <c r="G34" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3">
-        <v>63</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="A35" s="7">
+        <v>43</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E35" s="2">
+        <v>80</v>
+      </c>
+      <c r="F35" s="2">
+        <v>100</v>
+      </c>
+      <c r="G35" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E36" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2">
         <v>100</v>
       </c>
       <c r="G36" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4925,10 +4981,10 @@
         <v>45</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>248</v>
@@ -4944,144 +5000,120 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="7">
-        <v>34</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E38" s="2">
-        <v>99</v>
-      </c>
-      <c r="F38" s="2">
-        <v>100</v>
-      </c>
-      <c r="G38" s="2">
-        <v>101</v>
-      </c>
+      <c r="A38" s="3">
+        <v>46</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="7">
-        <v>60</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" s="2">
-        <v>99</v>
-      </c>
-      <c r="F39" s="2">
-        <v>100</v>
-      </c>
-      <c r="G39" s="2">
-        <v>101</v>
-      </c>
+      <c r="A39" s="3">
+        <v>47</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="7">
-        <v>51</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E40" s="2">
-        <v>99</v>
-      </c>
-      <c r="F40" s="2">
-        <v>100</v>
-      </c>
-      <c r="G40" s="2">
-        <v>101</v>
-      </c>
+      <c r="A40" s="3">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="7">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E41" s="2">
         <v>80</v>
       </c>
       <c r="F41" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G41" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="7">
-        <v>57</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E42" s="2">
-        <v>128</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="A42" s="3">
+        <v>50</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7">
+        <v>51</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G42" s="2">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>64</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="C43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E43" s="2">
+        <v>99</v>
+      </c>
+      <c r="F43" s="2">
+        <v>100</v>
+      </c>
+      <c r="G43" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>248</v>
@@ -5098,13 +5130,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>248</v>
@@ -5121,94 +5153,94 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E46" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G46" s="2">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="7">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E47" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G47" s="2">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E48" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F48" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G48" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="7">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E49" s="2">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="F49" s="2">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G49" s="2">
-        <v>120</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5216,10 +5248,10 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>246</v>
@@ -5235,199 +5267,167 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="3">
-        <v>65</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="A51" s="7">
+        <v>59</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="2">
+        <v>99</v>
+      </c>
+      <c r="F51" s="2">
+        <v>100</v>
+      </c>
+      <c r="G51" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="7">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E52" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F52" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G52" s="2">
-        <v>451</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="7">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E53" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F53" s="2">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="G53" s="2">
-        <v>528</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="7">
-        <v>41</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="3">
+        <v>62</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E54" s="2">
-        <v>80</v>
-      </c>
-      <c r="F54" s="2">
-        <v>100</v>
-      </c>
-      <c r="G54" s="2">
-        <v>120</v>
-      </c>
+      <c r="C54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="7">
-        <v>37</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="3">
+        <v>63</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E55" s="2">
-        <v>80</v>
-      </c>
-      <c r="F55" s="2">
-        <v>100</v>
-      </c>
-      <c r="G55" s="2">
-        <v>120</v>
-      </c>
+      <c r="C55" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="7">
-        <v>44</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="3">
+        <v>64</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E56" s="2">
-        <v>80</v>
-      </c>
-      <c r="F56" s="2">
-        <v>100</v>
-      </c>
-      <c r="G56" s="2">
-        <v>120</v>
-      </c>
+      <c r="C56" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="7">
-        <v>42</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E57" s="2">
-        <v>80</v>
-      </c>
-      <c r="F57" s="2">
-        <v>100</v>
-      </c>
-      <c r="G57" s="2">
-        <v>120</v>
-      </c>
+      <c r="A57" s="3">
+        <v>65</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="7">
-        <v>43</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="2">
-        <v>80</v>
-      </c>
-      <c r="F58" s="2">
-        <v>100</v>
-      </c>
-      <c r="G58" s="2">
-        <v>120</v>
-      </c>
+      <c r="A58" s="3">
+        <v>66</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="7">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E59" s="2">
         <v>80</v>
       </c>
       <c r="F59" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G59" s="2">
         <v>120</v>
@@ -5435,22 +5435,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="7">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E60" s="2">
         <v>80</v>
       </c>
       <c r="F60" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G60" s="2">
         <v>120</v>
@@ -5458,13 +5458,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="7">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>247</v>

--- a/PMConverter/src/test2.xlsx
+++ b/PMConverter/src/test2.xlsx
@@ -669,76 +669,76 @@
     <t>Assigned To</t>
   </si>
   <si>
+    <t>joiner</t>
+  </si>
+  <si>
+    <t>RENEWABLE</t>
+  </si>
+  <si>
+    <t>5 #5</t>
+  </si>
+  <si>
+    <t>40[5 #5];</t>
+  </si>
+  <si>
+    <t>roofer</t>
+  </si>
+  <si>
+    <t>4 #4</t>
+  </si>
+  <si>
+    <t>49[4 #4];</t>
+  </si>
+  <si>
+    <t>30;52;53;</t>
+  </si>
+  <si>
+    <t>8 #8</t>
+  </si>
+  <si>
+    <t>6[4 #8];17;18[3 #8];19[4 #8];20[4 #8];21[3 #8];22[3 #8];23[5 #8];24[4 #8];25[2 #8];28[5 #8];69;</t>
+  </si>
+  <si>
+    <t>27;45;55;</t>
+  </si>
+  <si>
+    <t>29;51;54;61;</t>
+  </si>
+  <si>
+    <t>2 #2</t>
+  </si>
+  <si>
+    <t>59;60;</t>
+  </si>
+  <si>
+    <t>3 #3</t>
+  </si>
+  <si>
+    <t>34[2 #3];56;</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>26[3 #3];</t>
+  </si>
+  <si>
+    <t>painter</t>
+  </si>
+  <si>
+    <t>6 #6</t>
+  </si>
+  <si>
+    <t>39[4 #6];</t>
+  </si>
+  <si>
+    <t>35;57;58;</t>
+  </si>
+  <si>
     <t>plasterer</t>
   </si>
   <si>
-    <t>RENEWABLE</t>
-  </si>
-  <si>
-    <t>4 #4</t>
-  </si>
-  <si>
     <t>32[3 #4];</t>
-  </si>
-  <si>
-    <t>35;57;58;</t>
-  </si>
-  <si>
-    <t>roofer</t>
-  </si>
-  <si>
-    <t>49[4 #4];</t>
-  </si>
-  <si>
-    <t>joiner</t>
-  </si>
-  <si>
-    <t>5 #5</t>
-  </si>
-  <si>
-    <t>40[5 #5];</t>
-  </si>
-  <si>
-    <t>carpenter</t>
-  </si>
-  <si>
-    <t>3 #3</t>
-  </si>
-  <si>
-    <t>26[3 #3];</t>
-  </si>
-  <si>
-    <t>8 #8</t>
-  </si>
-  <si>
-    <t>6[4 #8];17;18[3 #8];19[4 #8];20[4 #8];21[3 #8];22[3 #8];23[5 #8];24[4 #8];25[2 #8];28[5 #8];69;</t>
-  </si>
-  <si>
-    <t>2 #2</t>
-  </si>
-  <si>
-    <t>59;60;</t>
-  </si>
-  <si>
-    <t>29;51;54;61;</t>
-  </si>
-  <si>
-    <t>27;45;55;</t>
-  </si>
-  <si>
-    <t>painter</t>
-  </si>
-  <si>
-    <t>6 #6</t>
-  </si>
-  <si>
-    <t>39[4 #6];</t>
-  </si>
-  <si>
-    <t>34[2 #3];56;</t>
-  </si>
-  <si>
-    <t>30;52;53;</t>
   </si>
   <si>
     <t>Activity Duration Distribution Profiles</t>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>217</v>
@@ -3845,53 +3845,53 @@
         <v>0</v>
       </c>
       <c r="F3" s="13">
-        <v>41.38</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>220</v>
       </c>
       <c r="H3" s="5">
-        <v>14896.8</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E4" s="13">
         <v>0</v>
       </c>
       <c r="F4" s="13">
-        <v>41.56</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H4" s="5">
-        <v>19948.8</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
@@ -3900,18 +3900,18 @@
         <v>36</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H5" s="5">
-        <v>11520</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>218</v>
@@ -3923,65 +3923,65 @@
         <v>0</v>
       </c>
       <c r="F6" s="13">
-        <v>42</v>
+        <v>38.56</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>226</v>
       </c>
       <c r="H6" s="5">
-        <v>8400</v>
+        <v>173057.28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
       </c>
       <c r="F7" s="13">
-        <v>38</v>
+        <v>40.65</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H7" s="5">
-        <v>9120</v>
+        <v>9756</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
       </c>
       <c r="F8" s="13">
-        <v>38.56</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H8" s="5">
-        <v>173057.28</v>
+        <v>24320</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3995,7 +3995,7 @@
         <v>218</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>43.2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H9" s="5">
         <v>13824</v>
@@ -4012,54 +4012,54 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H10" s="5">
-        <v>24320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
       </c>
       <c r="F11" s="13">
-        <v>40.65</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H11" s="5">
-        <v>9756</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4067,13 +4067,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H12" s="5">
         <v>16800</v>
@@ -4090,54 +4090,54 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <v>0</v>
+        <v>41.56</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H13" s="5">
-        <v>0</v>
+        <v>19948.8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
       </c>
       <c r="F14" s="13">
-        <v>36</v>
+        <v>41.38</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>240</v>
       </c>
       <c r="H14" s="5">
-        <v>8640</v>
+        <v>14896.8</v>
       </c>
     </row>
   </sheetData>
